--- a/evaluation/OLS_Regression_Feature_Analysis_fairness_measure_based.xlsx
+++ b/evaluation/OLS_Regression_Feature_Analysis_fairness_measure_based.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E101"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,14 +463,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1684853388725177</v>
+        <v>0.2960000000000006</v>
       </c>
       <c r="C2" t="n">
-        <v>5.274091038386048e-81</v>
+        <v>0</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -486,14 +486,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.117096240461918</v>
+        <v>0.09822222222222217</v>
       </c>
       <c r="C3" t="n">
-        <v>1.910671634243907e-21</v>
+        <v>0</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -509,14 +509,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1091879047094211</v>
+        <v>0.04911111111111158</v>
       </c>
       <c r="C4" t="n">
-        <v>3.283273870474619e-83</v>
+        <v>0</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -532,14 +532,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1088578791384627</v>
+        <v>0.0491111111111114</v>
       </c>
       <c r="C5" t="n">
-        <v>8.239279720775832e-06</v>
+        <v>0</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -555,14 +555,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.08818973555589024</v>
+        <v>0.04911111111111099</v>
       </c>
       <c r="C6" t="n">
-        <v>8.082487121916711e-84</v>
+        <v>0</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -578,14 +578,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.08029560331662761</v>
+        <v>0.04911111111111094</v>
       </c>
       <c r="C7" t="n">
-        <v>2.300620837129312e-73</v>
+        <v>0</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -605,10 +605,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.07503935664432981</v>
+        <v>0.02455555555555558</v>
       </c>
       <c r="C8" t="n">
-        <v>8.935549458209395e-89</v>
+        <v>0</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -624,16 +624,20 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.03678770257206074</v>
+        <v>0.02455555555555555</v>
       </c>
       <c r="C9" t="n">
-        <v>0.07371500348522252</v>
-      </c>
-      <c r="D9" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E9" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -643,14 +647,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.02719966907355557</v>
+        <v>0.0245555555555555</v>
       </c>
       <c r="C10" t="n">
-        <v>1.949257218693598e-06</v>
+        <v>0</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -666,14 +670,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02237042345573299</v>
+        <v>0.02455555555555546</v>
       </c>
       <c r="C11" t="n">
-        <v>1.345748677508962e-05</v>
+        <v>0</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -689,18 +693,18 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.02213634737878659</v>
+        <v>9.575673587391975e-16</v>
       </c>
       <c r="C12" t="n">
-        <v>5.943528573402063e-05</v>
+        <v>0.02749520944366242</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -712,14 +716,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.0156429249556562</v>
+        <v>8.881784197001252e-16</v>
       </c>
       <c r="C13" t="n">
-        <v>0.3170416506271614</v>
+        <v>0.253620906885678</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -731,20 +735,16 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.01332801993972657</v>
+        <v>7.840950111415168e-16</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0003944334547001101</v>
-      </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.05222799023890129</v>
+      </c>
+      <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -754,14 +754,14 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>4.196948997726123e-05</v>
+        <v>5.412337245047638e-16</v>
       </c>
       <c r="C15" t="n">
-        <v>0.9928443374480936</v>
+        <v>0.1699198717853047</v>
       </c>
       <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
@@ -773,13 +773,15 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0</v>
-      </c>
-      <c r="C16" t="inlineStr"/>
+        <v>4.163336342344337e-16</v>
+      </c>
+      <c r="C16" t="n">
+        <v>0.5818045394314701</v>
+      </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
@@ -790,14 +792,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.00672806109012381</v>
+        <v>3.677613769070831e-16</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2477804240126735</v>
+        <v>0.2970857370922155</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -809,14 +811,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.008623556413883024</v>
+        <v>3.33066907387547e-16</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5386076544784476</v>
+        <v>0.5404656810267265</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -828,14 +830,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.01133689537867223</v>
+        <v>3.05311331771918e-16</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3489601953373019</v>
+        <v>0.3591692711301345</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -847,14 +849,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.01264644953885741</v>
+        <v>1.52655665885959e-16</v>
       </c>
       <c r="C20" t="n">
-        <v>0.2084733821228939</v>
+        <v>0.8843952132055773</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -866,14 +868,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.01549867326796006</v>
+        <v>5.551115123125783e-17</v>
       </c>
       <c r="C21" t="n">
-        <v>0.2181381103393157</v>
+        <v>0.9715955281374125</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -885,14 +887,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.02673358627255343</v>
+        <v>-1.064686533380765e-16</v>
       </c>
       <c r="C22" t="n">
-        <v>0.1137018530702243</v>
+        <v>0.69141350402432</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -904,20 +906,16 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.02830801333651813</v>
+        <v>-1.804112415015879e-16</v>
       </c>
       <c r="C23" t="n">
-        <v>1.453945308693226e-07</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.6499721928135728</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -927,20 +925,16 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-0.02906994242095892</v>
+        <v>-1.821459649775647e-16</v>
       </c>
       <c r="C24" t="n">
-        <v>7.652437377483789e-12</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.504691046214877</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -950,14 +944,14 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-0.08320836293317704</v>
+        <v>-2.220446049250313e-16</v>
       </c>
       <c r="C25" t="n">
-        <v>0.07941331516577629</v>
+        <v>0.5140684912027838</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
@@ -969,20 +963,16 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-0.1389948955640298</v>
+        <v>-3.95516952522712e-16</v>
       </c>
       <c r="C26" t="n">
-        <v>0.01743923231038174</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.550588497849832</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -992,131 +982,115 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1979352757448672</v>
+        <v>-4.024558464266192e-16</v>
       </c>
       <c r="C27" t="n">
-        <v>9.160753833599147e-20</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5726230888533291</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Value Unfairness</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1153160238897369</v>
+        <v>-5.551115123125783e-16</v>
       </c>
       <c r="C28" t="n">
-        <v>3.764781163343664e-05</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.07703227595860056</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Value Unfairness</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1143833700147324</v>
+        <v>-6.106226635438361e-16</v>
       </c>
       <c r="C29" t="n">
-        <v>3.298720936481301e-72</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.4790385371488071</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Value Unfairness</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.08701439444143368</v>
+        <v>-7.374743177246401e-16</v>
       </c>
       <c r="C30" t="n">
-        <v>0.04276979792223077</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.1202811234365892</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Value Unfairness</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.07643623722145677</v>
+        <v>-1.249000902703301e-15</v>
       </c>
       <c r="C31" t="n">
-        <v>2.168531495601072e-05</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.06434606845587958</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Value Unfairness</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.06549376249122302</v>
+        <v>0.4530000000000005</v>
       </c>
       <c r="C32" t="n">
-        <v>0.07274260098886136</v>
-      </c>
-      <c r="D32" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E32" t="inlineStr">
         <is>
           <t>Overestimation Unfairness</t>
@@ -1126,20 +1100,16 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.04291182645101244</v>
+        <v>6.522560269672795e-16</v>
       </c>
       <c r="C33" t="n">
-        <v>1.189707024628047e-05</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.2023780047913085</v>
+      </c>
+      <c r="D33" t="inlineStr"/>
       <c r="E33" t="inlineStr">
         <is>
           <t>Overestimation Unfairness</t>
@@ -1149,18 +1119,18 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.04166242001581517</v>
+        <v>5.811323644522304e-16</v>
       </c>
       <c r="C34" t="n">
-        <v>5.018415515235993e-06</v>
+        <v>0.03869868921389133</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
@@ -1172,14 +1142,14 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.02709685930369226</v>
+        <v>5.551115123125783e-16</v>
       </c>
       <c r="C35" t="n">
-        <v>0.03387685921582444</v>
+        <v>0.01696068190859571</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1195,18 +1165,18 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.02278917526674226</v>
+        <v>4.440892098500626e-16</v>
       </c>
       <c r="C36" t="n">
-        <v>0.0006337056534006235</v>
+        <v>0.02368281303672244</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E36" t="inlineStr">
@@ -1218,20 +1188,16 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01358123113036901</v>
+        <v>4.232725281383409e-16</v>
       </c>
       <c r="C37" t="n">
-        <v>0.03783848675461584</v>
-      </c>
-      <c r="D37" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.1764926788092537</v>
+      </c>
+      <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
         <is>
           <t>Overestimation Unfairness</t>
@@ -1241,20 +1207,16 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.0135156281733233</v>
+        <v>3.608224830031759e-16</v>
       </c>
       <c r="C38" t="n">
-        <v>0.03810147994673349</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.4199595704726872</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>Overestimation Unfairness</t>
@@ -1264,16 +1226,20 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>6.379999992880275e-05</v>
+        <v>2.532696274926138e-16</v>
       </c>
       <c r="C39" t="n">
-        <v>0.9949189354439006</v>
-      </c>
-      <c r="D39" t="inlineStr"/>
+        <v>0.03214567553445502</v>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E39" t="inlineStr">
         <is>
           <t>Overestimation Unfairness</t>
@@ -1283,13 +1249,15 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
-      </c>
-      <c r="C40" t="inlineStr"/>
+        <v>1.95590071916385e-16</v>
+      </c>
+      <c r="C40" t="n">
+        <v>0.43298980076659</v>
+      </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
@@ -1300,14 +1268,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.001865664999141044</v>
+        <v>1.52655665885959e-16</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8565592472913606</v>
+        <v>0.4516754956105316</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
@@ -1319,14 +1287,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.007723268206884841</v>
+        <v>1.144917494144693e-16</v>
       </c>
       <c r="C42" t="n">
-        <v>0.411975201555473</v>
+        <v>0.4659963901519076</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
@@ -1338,14 +1306,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.007800722631008727</v>
+        <v>8.326672684688674e-17</v>
       </c>
       <c r="C43" t="n">
-        <v>0.3354321522055302</v>
+        <v>0.4043941231095659</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
@@ -1357,14 +1325,14 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.009506239529824847</v>
+        <v>6.938893903907228e-17</v>
       </c>
       <c r="C44" t="n">
-        <v>0.2525829276389358</v>
+        <v>0.7170489152329473</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
@@ -1376,14 +1344,14 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.009753930886181893</v>
+        <v>5.551115123125783e-17</v>
       </c>
       <c r="C45" t="n">
-        <v>0.9075886262256719</v>
+        <v>0.7766837018716044</v>
       </c>
       <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
@@ -1395,14 +1363,14 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.04108427377560822</v>
+        <v>5.551115123125783e-17</v>
       </c>
       <c r="C46" t="n">
-        <v>0.06605536562274576</v>
+        <v>0.4979553266528808</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
@@ -1414,20 +1382,16 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.05016430698351784</v>
+        <v>2.775557561562891e-17</v>
       </c>
       <c r="C47" t="n">
-        <v>0.04421004840783572</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.7234396321901178</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
           <t>Overestimation Unfairness</t>
@@ -1437,20 +1401,16 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-0.06873271193257538</v>
+        <v>0</v>
       </c>
       <c r="C48" t="n">
-        <v>0.001450067207535299</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
           <t>Overestimation Unfairness</t>
@@ -1460,20 +1420,16 @@
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-0.07659234052439148</v>
+        <v>-3.469446951953614e-17</v>
       </c>
       <c r="C49" t="n">
-        <v>0.01081287640539172</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.9363956677824026</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
           <t>Overestimation Unfairness</t>
@@ -1483,20 +1439,16 @@
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-0.1022749633467718</v>
+        <v>-8.586881206085195e-17</v>
       </c>
       <c r="C50" t="n">
-        <v>4.060199689322854e-37</v>
-      </c>
-      <c r="D50" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.577843446626108</v>
+      </c>
+      <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
           <t>Overestimation Unfairness</t>
@@ -1506,14 +1458,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-0.119264312719064</v>
+        <v>-1.318389841742373e-16</v>
       </c>
       <c r="C51" t="n">
-        <v>0.2491758916945146</v>
+        <v>0.7293953779413612</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
@@ -1525,204 +1477,218 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.2188117864987037</v>
+        <v>-1.804112415015879e-16</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1352321888548109</v>
+        <v>0.186009135378904</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Overestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.08046531078699798</v>
+        <v>-2.255140518769849e-16</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1189717461682943</v>
+        <v>0.1464575273174205</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Overestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.0530912342933955</v>
+        <v>-2.498001805406602e-16</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0809041516553913</v>
+        <v>0.6791516766896901</v>
       </c>
       <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Overestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.03027524775902375</v>
+        <v>-2.706168622523819e-16</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6175548218156566</v>
+        <v>0.47908357740913</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Overestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.02064819322111291</v>
+        <v>-3.33066907387547e-16</v>
       </c>
       <c r="C56" t="n">
-        <v>0.1456001090997322</v>
+        <v>0.5020536395270276</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Overestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.009838433963412017</v>
+        <v>-3.747002708109903e-16</v>
       </c>
       <c r="C57" t="n">
-        <v>0.2867822093233157</v>
+        <v>0.16987355112413</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Overestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.009472030069949344</v>
+        <v>-3.781697177629439e-16</v>
       </c>
       <c r="C58" t="n">
-        <v>0.49002667793574</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+        <v>0.03633369414698873</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Overestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.0004401155861506775</v>
+        <v>-4.302114220422482e-16</v>
       </c>
       <c r="C59" t="n">
-        <v>0.9860742571644747</v>
+        <v>0.2675882646279165</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Overestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0</v>
-      </c>
-      <c r="C60" t="inlineStr"/>
-      <c r="D60" t="inlineStr"/>
+        <v>-4.85722573273506e-16</v>
+      </c>
+      <c r="C60" t="n">
+        <v>0.03395603971193649</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Overestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.003264758415660929</v>
+        <v>-1.165734175856414e-15</v>
       </c>
       <c r="C61" t="n">
-        <v>0.7534276524971931</v>
+        <v>0.1938915750520048</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Overestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.004062470856200486</v>
+        <v>0.3989999999999997</v>
       </c>
       <c r="C62" t="n">
-        <v>0.8975880051331304</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -1732,16 +1698,20 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.008406002939756217</v>
+        <v>1.030425744730223e-15</v>
       </c>
       <c r="C63" t="n">
-        <v>0.474327611154558</v>
-      </c>
-      <c r="D63" t="inlineStr"/>
+        <v>0.001544942668675201</v>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E63" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -1751,14 +1721,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.01100596381524505</v>
+        <v>4.336808689942018e-16</v>
       </c>
       <c r="C64" t="n">
-        <v>0.7083322591729044</v>
+        <v>0.1890317499897633</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
@@ -1770,14 +1740,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.01187586102027419</v>
+        <v>3.885780586188048e-16</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2056960112961483</v>
+        <v>0.265772044547886</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
@@ -1789,16 +1759,20 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.01443479076872049</v>
+        <v>3.729655473350135e-16</v>
       </c>
       <c r="C66" t="n">
-        <v>0.05460774136290469</v>
-      </c>
-      <c r="D66" t="inlineStr"/>
+        <v>0.01529796703906005</v>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E66" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -1808,14 +1782,14 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.02205408252399896</v>
+        <v>2.324529457808922e-16</v>
       </c>
       <c r="C67" t="n">
-        <v>0.05458482412515211</v>
+        <v>0.5297412046079992</v>
       </c>
       <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
@@ -1831,16 +1805,12 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>-0.02773813611947646</v>
+        <v>2.311519031739095e-16</v>
       </c>
       <c r="C68" t="n">
-        <v>0.03025250191085301</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.2349571414819246</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -1850,14 +1820,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Standart Deviation of Popularity Bias</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.03682492778461942</v>
+        <v>1.387778780781446e-16</v>
       </c>
       <c r="C69" t="n">
-        <v>0.2956655976723142</v>
+        <v>0.7422921132390718</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
@@ -1869,20 +1839,16 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-0.04001832670895539</v>
+        <v>9.302454639925628e-17</v>
       </c>
       <c r="C70" t="n">
-        <v>0.006336450673799967</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.688539951327236</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -1892,14 +1858,14 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Average Popularity</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-0.04674549931906757</v>
+        <v>-5.030698080332741e-17</v>
       </c>
       <c r="C71" t="n">
-        <v>0.2701580475610311</v>
+        <v>0.9219934447459877</v>
       </c>
       <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
@@ -1911,20 +1877,16 @@
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Value Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-0.0516294927286546</v>
+        <v>-6.245004513516506e-17</v>
       </c>
       <c r="C72" t="n">
-        <v>0.004346026777116089</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.7079043795270558</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -1934,20 +1896,16 @@
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-0.06146792669206638</v>
+        <v>-9.107298248878237e-17</v>
       </c>
       <c r="C73" t="n">
-        <v>6.580409301887379e-11</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5975931671815276</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -1957,20 +1915,16 @@
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-0.06212125283955278</v>
+        <v>-1.179611963664229e-16</v>
       </c>
       <c r="C74" t="n">
-        <v>3.964703392760829e-06</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.6577170234913428</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -1980,20 +1934,16 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-0.08409317726378407</v>
+        <v>-1.370431546021678e-16</v>
       </c>
       <c r="C75" t="n">
-        <v>0.03244777456618556</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.2965907101519935</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -2003,14 +1953,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-0.2127857595360071</v>
+        <v>-1.996693825903617e-16</v>
       </c>
       <c r="C76" t="n">
-        <v>0.07393164876537139</v>
+        <v>0.1353057531849219</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
@@ -2022,60 +1972,52 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Overestimation Unfairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>1.762198996537878</v>
+        <v>-2.532696274926138e-16</v>
       </c>
       <c r="C77" t="n">
-        <v>3.366914547278885e-50</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1893214559650412</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Space Size</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>1.154290707353898</v>
+        <v>-2.914335439641036e-16</v>
       </c>
       <c r="C78" t="n">
-        <v>3.842108762308014e-11</v>
-      </c>
-      <c r="D78" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.443836635659738</v>
+      </c>
+      <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.99500175632864</v>
+        <v>-5.516420653606247e-16</v>
       </c>
       <c r="C79" t="n">
-        <v>1.762979274692803e-58</v>
+        <v>0.0007459166111646344</v>
       </c>
       <c r="D79" t="inlineStr">
         <is>
@@ -2084,44 +2026,44 @@
       </c>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.7671972402092369</v>
+        <v>-5.724587470723463e-16</v>
       </c>
       <c r="C80" t="n">
-        <v>6.53410881995913e-39</v>
+        <v>0.00383652215906964</v>
       </c>
       <c r="D80" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.7202297183179494</v>
+        <v>-9.992007221626409e-16</v>
       </c>
       <c r="C81" t="n">
-        <v>7.01556886882151e-49</v>
+        <v>3.008115804373283e-06</v>
       </c>
       <c r="D81" t="inlineStr">
         <is>
@@ -2130,30 +2072,26 @@
       </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.6132180737672285</v>
+        <v>-1.068589661201713e-15</v>
       </c>
       <c r="C82" t="n">
-        <v>0.007220582532272805</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.1615926364878774</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
@@ -2164,10 +2102,10 @@
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.5743874045896065</v>
+        <v>-0.04455555555555539</v>
       </c>
       <c r="C83" t="n">
-        <v>1.460230958419989e-23</v>
+        <v>0</v>
       </c>
       <c r="D83" t="inlineStr">
         <is>
@@ -2176,21 +2114,21 @@
       </c>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.3728651926213462</v>
+        <v>-0.04455555555555541</v>
       </c>
       <c r="C84" t="n">
-        <v>3.295913658803515e-08</v>
+        <v>0</v>
       </c>
       <c r="D84" t="inlineStr">
         <is>
@@ -2199,160 +2137,188 @@
       </c>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>0.2930407083899547</v>
+        <v>-0.04455555555555556</v>
       </c>
       <c r="C85" t="n">
-        <v>0.3269965287011039</v>
-      </c>
-      <c r="D85" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>0.1586544970854311</v>
+        <v>-0.04455555555555557</v>
       </c>
       <c r="C86" t="n">
-        <v>0.04652609632349379</v>
+        <v>0</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>0.1434342662595156</v>
+        <v>-0.08911111111111018</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3267460315054012</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>0.1197903602723338</v>
+        <v>-0.08911111111111097</v>
       </c>
       <c r="C88" t="n">
-        <v>0.1061172780459581</v>
-      </c>
-      <c r="D88" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>0.09471668100898145</v>
+        <v>-0.08911111111111139</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1164213970455174</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>0.08290683281992946</v>
+        <v>-0.08911111111111165</v>
       </c>
       <c r="C90" t="n">
-        <v>0.327611069331106</v>
-      </c>
-      <c r="D90" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>0.04061826898306355</v>
+        <v>-0.1782222222222217</v>
       </c>
       <c r="C91" t="n">
-        <v>0.598731371534116</v>
-      </c>
-      <c r="D91" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>0.03836405975727031</v>
+        <v>4.768999999999995</v>
       </c>
       <c r="C92" t="n">
-        <v>0.9130804282831431</v>
-      </c>
-      <c r="D92" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E92" t="inlineStr">
         <is>
           <t>Differential Fairness of sensitive attribute</t>
@@ -2362,14 +2328,20 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>0</v>
-      </c>
-      <c r="C93" t="inlineStr"/>
-      <c r="D93" t="inlineStr"/>
+        <v>0.2271111111111148</v>
+      </c>
+      <c r="C93" t="n">
+        <v>0</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E93" t="inlineStr">
         <is>
           <t>Differential Fairness of sensitive attribute</t>
@@ -2379,16 +2351,20 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.07955371805039263</v>
+        <v>0.1135555555555603</v>
       </c>
       <c r="C94" t="n">
-        <v>0.3331719931086751</v>
-      </c>
-      <c r="D94" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E94" t="inlineStr">
         <is>
           <t>Differential Fairness of sensitive attribute</t>
@@ -2398,16 +2374,20 @@
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.09144432611026874</v>
+        <v>0.1135555555555553</v>
       </c>
       <c r="C95" t="n">
-        <v>0.1797302825895737</v>
-      </c>
-      <c r="D95" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E95" t="inlineStr">
         <is>
           <t>Differential Fairness of sensitive attribute</t>
@@ -2417,16 +2397,20 @@
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-0.282417813290332</v>
+        <v>0.1135555555555533</v>
       </c>
       <c r="C96" t="n">
-        <v>0.1232076864974828</v>
-      </c>
-      <c r="D96" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
           <t>Differential Fairness of sensitive attribute</t>
@@ -2436,16 +2420,20 @@
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-0.316761258342662</v>
+        <v>0.113555555555553</v>
       </c>
       <c r="C97" t="n">
-        <v>0.7088303622212104</v>
-      </c>
-      <c r="D97" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E97" t="inlineStr">
         <is>
           <t>Differential Fairness of sensitive attribute</t>
@@ -2455,16 +2443,20 @@
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>-0.3217090226153165</v>
+        <v>0.0567777777777797</v>
       </c>
       <c r="C98" t="n">
-        <v>0.1153199922036322</v>
-      </c>
-      <c r="D98" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E98" t="inlineStr">
         <is>
           <t>Differential Fairness of sensitive attribute</t>
@@ -2474,14 +2466,14 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>-0.5929068930975977</v>
+        <v>0.05677777777777866</v>
       </c>
       <c r="C99" t="n">
-        <v>0.0008150920457265562</v>
+        <v>0</v>
       </c>
       <c r="D99" t="inlineStr">
         <is>
@@ -2497,16 +2489,20 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>-0.6163263698036938</v>
+        <v>0.05677777777777793</v>
       </c>
       <c r="C100" t="n">
-        <v>0.3713308544503368</v>
-      </c>
-      <c r="D100" t="inlineStr"/>
+        <v>0</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E100" t="inlineStr">
         <is>
           <t>Differential Fairness of sensitive attribute</t>
@@ -2516,21 +2512,405 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
+          <t>Model Name_FOCF</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.05677777777777682</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>Differential Fairness of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Space Size</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>8.992806499463768e-15</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.1036202076158566</v>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>Differential Fairness of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>Mean Rating</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>8.43769498715119e-15</v>
+      </c>
+      <c r="C103" t="n">
+        <v>0.4458704531094044</v>
+      </c>
+      <c r="D103" t="inlineStr"/>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>Differential Fairness of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
+          <t>Overestimation Unfairness of sensitive attribute</t>
+        </is>
+      </c>
+      <c r="B104" t="n">
+        <v>5.162537064506978e-15</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.06529738953974513</v>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>Differential Fairness of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Number of Ratings</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>4.690692279041286e-15</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.06122276453327194</v>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>Differential Fairness of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Value Unfairness of sensitive attribute</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>4.218847493575595e-15</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.08134874284094148</v>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>Differential Fairness of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Standart Deviation of Rating</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>3.108624468950438e-15</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.5623654494819169</v>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>Differential Fairness of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>hit@5</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>2.664535259100376e-15</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.3521640692811184</v>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>Differential Fairness of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
           <t>Shape</t>
         </is>
       </c>
-      <c r="B101" t="n">
-        <v>-0.7705857935934018</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0.001801442962324902</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
+      <c r="B109" t="n">
+        <v>9.992007221626409e-16</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.6723834137606638</v>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>Differential Fairness of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>giniindex@5</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>9.992007221626409e-16</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.795841141784949</v>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>Differential Fairness of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Average Popularity</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>2.220446049250313e-16</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.9762304443299523</v>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>Differential Fairness of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Gini User</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>1.110223024625157e-16</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.9686148090787136</v>
+      </c>
+      <c r="D112" t="inlineStr"/>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>Differential Fairness of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Skewness of Long Tail Items</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>-1.665334536937735e-16</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.9302949606672999</v>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>Differential Fairness of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Skewness of Popularity Bias</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>-2.775557561562891e-16</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.8861015660029918</v>
+      </c>
+      <c r="D114" t="inlineStr"/>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>Differential Fairness of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>popularitypercentage@5</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>-7.771561172376096e-16</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.7269811213861481</v>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>Differential Fairness of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Standart Deviation of Popularity Bias</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>-2.886579864025407e-15</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.63730903717762</v>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>Differential Fairness of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Density</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>-3.774758283725532e-15</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.4560092068653686</v>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>Differential Fairness of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Number of Items</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>-5.773159728050814e-15</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.08670470896436527</v>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>Differential Fairness of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Difference between Sensitive Attribute Percentage</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>-6.078471059822732e-15</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.1964762718623199</v>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>Differential Fairness of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Generalized Cross Entropy</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>-8.326672684688674e-15</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.0005986607099538837</v>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>Differential Fairness of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>Number of Users</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-9.214851104388799e-15</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.05455236278098327</v>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
         <is>
           <t>Differential Fairness of sensitive attribute</t>
         </is>

--- a/evaluation/OLS_Regression_Feature_Analysis_fairness_measure_based.xlsx
+++ b/evaluation/OLS_Regression_Feature_Analysis_fairness_measure_based.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E89"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,14 +463,14 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.2960000000000006</v>
+        <v>0.1682677208212363</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>1.264234405528467e-66</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -486,14 +486,14 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.09822222222222217</v>
+        <v>0.1212678228727573</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5.98465007139279e-13</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
@@ -509,14 +509,14 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04911111111111158</v>
+        <v>0.1053753278504067</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9.969408613694618e-18</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -536,10 +536,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.0491111111111114</v>
+        <v>0.1010867541204254</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>4.359855533334364e-55</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -555,14 +555,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.04911111111111099</v>
+        <v>0.1006825553719108</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>5.961083735307565e-121</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -578,14 +578,14 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.04911111111111094</v>
+        <v>0.06718096670081082</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>3.304340467464925e-53</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -601,14 +601,14 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.02455555555555558</v>
+        <v>0.06289239297082985</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>1.410613990439584e-11</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -624,14 +624,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02455555555555555</v>
+        <v>0.05934185732815137</v>
       </c>
       <c r="C9" t="n">
-        <v>0</v>
+        <v>0.0004012135230810572</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
@@ -647,14 +647,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.0245555555555555</v>
+        <v>0.05282686073552929</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>6.476944133163369e-44</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
@@ -670,14 +670,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.02455555555555546</v>
+        <v>0.0503209406023828</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>5.756143330401118e-06</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
@@ -693,18 +693,18 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>9.575673587391975e-16</v>
+        <v>0.04581186940675921</v>
       </c>
       <c r="C12" t="n">
-        <v>0.02749520944366242</v>
+        <v>2.69002835267264e-06</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E12" t="inlineStr">
@@ -716,16 +716,20 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>8.881784197001252e-16</v>
+        <v>0.03922865366436765</v>
       </c>
       <c r="C13" t="n">
-        <v>0.253620906885678</v>
-      </c>
-      <c r="D13" t="inlineStr"/>
+        <v>0.0003157246175244627</v>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E13" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -735,14 +739,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>7.840950111415168e-16</v>
+        <v>0.0215514358546197</v>
       </c>
       <c r="C14" t="n">
-        <v>0.05222799023890129</v>
+        <v>0.2491489690088689</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -754,16 +758,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>5.412337245047638e-16</v>
+        <v>0.01740742653241278</v>
       </c>
       <c r="C15" t="n">
-        <v>0.1699198717853047</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>1.641153985959028e-06</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -773,14 +781,14 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>4.163336342344337e-16</v>
+        <v>0.01054122151087101</v>
       </c>
       <c r="C16" t="n">
-        <v>0.5818045394314701</v>
+        <v>0.636693928407006</v>
       </c>
       <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
@@ -792,14 +800,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>3.677613769070831e-16</v>
+        <v>0.004261309676521404</v>
       </c>
       <c r="C17" t="n">
-        <v>0.2970857370922155</v>
+        <v>0.8170930628583062</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -811,14 +819,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>3.33066907387547e-16</v>
+        <v>-0.002649121818615843</v>
       </c>
       <c r="C18" t="n">
-        <v>0.5404656810267265</v>
+        <v>0.4729903845057094</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -830,14 +838,14 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>3.05311331771918e-16</v>
+        <v>-0.003780152294385658</v>
       </c>
       <c r="C19" t="n">
-        <v>0.3591692711301345</v>
+        <v>0.7799763273974888</v>
       </c>
       <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
@@ -849,16 +857,20 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1.52655665885959e-16</v>
+        <v>-0.04090926882058667</v>
       </c>
       <c r="C20" t="n">
-        <v>0.8843952132055773</v>
-      </c>
-      <c r="D20" t="inlineStr"/>
+        <v>0.008310453925751853</v>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E20" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -868,16 +880,20 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>5.551115123125783e-17</v>
+        <v>-0.0513833640256063</v>
       </c>
       <c r="C21" t="n">
-        <v>0.9715955281374125</v>
-      </c>
-      <c r="D21" t="inlineStr"/>
+        <v>0.0001738196530145852</v>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E21" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -887,16 +903,20 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-1.064686533380765e-16</v>
+        <v>-0.07472526108770046</v>
       </c>
       <c r="C22" t="n">
-        <v>0.69141350402432</v>
-      </c>
-      <c r="D22" t="inlineStr"/>
+        <v>0.00010873626364705</v>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E22" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -906,16 +926,20 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-1.804112415015879e-16</v>
+        <v>-0.1843785681133646</v>
       </c>
       <c r="C23" t="n">
-        <v>0.6499721928135728</v>
-      </c>
-      <c r="D23" t="inlineStr"/>
+        <v>5.200240237896049e-14</v>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E23" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -925,170 +949,202 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-1.821459649775647e-16</v>
+        <v>0.2427927580936384</v>
       </c>
       <c r="C24" t="n">
-        <v>0.504691046214877</v>
-      </c>
-      <c r="D24" t="inlineStr"/>
+        <v>7.378184203510355e-25</v>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Value Unfairness</t>
+          <t>Overestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-2.220446049250313e-16</v>
+        <v>0.2139540583886624</v>
       </c>
       <c r="C25" t="n">
-        <v>0.5140684912027838</v>
-      </c>
-      <c r="D25" t="inlineStr"/>
+        <v>2.760439086358574e-20</v>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Value Unfairness</t>
+          <t>Overestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>-3.95516952522712e-16</v>
+        <v>0.2117084844458111</v>
       </c>
       <c r="C26" t="n">
-        <v>0.550588497849832</v>
-      </c>
-      <c r="D26" t="inlineStr"/>
+        <v>7.938966056305479e-50</v>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Value Unfairness</t>
+          <t>Overestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>-4.024558464266192e-16</v>
+        <v>0.1366905487625105</v>
       </c>
       <c r="C27" t="n">
-        <v>0.5726230888533291</v>
-      </c>
-      <c r="D27" t="inlineStr"/>
+        <v>4.422097160746366e-13</v>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Value Unfairness</t>
+          <t>Overestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>-5.551115123125783e-16</v>
+        <v>0.1184434896451408</v>
       </c>
       <c r="C28" t="n">
-        <v>0.07703227595860056</v>
-      </c>
-      <c r="D28" t="inlineStr"/>
+        <v>2.747537373674552e-06</v>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Value Unfairness</t>
+          <t>Overestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>-6.106226635438361e-16</v>
+        <v>0.1140580060977555</v>
       </c>
       <c r="C29" t="n">
-        <v>0.4790385371488071</v>
-      </c>
-      <c r="D29" t="inlineStr"/>
+        <v>9.690939524990719e-10</v>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Value Unfairness</t>
+          <t>Overestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>-7.374743177246401e-16</v>
+        <v>0.1026507511473019</v>
       </c>
       <c r="C30" t="n">
-        <v>0.1202811234365892</v>
-      </c>
-      <c r="D30" t="inlineStr"/>
+        <v>3.43562718220049e-78</v>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Value Unfairness</t>
+          <t>Overestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>-1.249000902703301e-15</v>
+        <v>0.06251756767561392</v>
       </c>
       <c r="C31" t="n">
-        <v>0.06434606845587958</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>0.0001345451692438948</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Value Unfairness</t>
+          <t>Overestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.4530000000000005</v>
+        <v>0.04694517815411609</v>
       </c>
       <c r="C32" t="n">
-        <v>0</v>
+        <v>0.001515892830332539</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
@@ -1100,16 +1156,20 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>6.522560269672795e-16</v>
+        <v>0.04282025589843197</v>
       </c>
       <c r="C33" t="n">
-        <v>0.2023780047913085</v>
-      </c>
-      <c r="D33" t="inlineStr"/>
+        <v>1.658634827098603e-17</v>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E33" t="inlineStr">
         <is>
           <t>Overestimation Unfairness</t>
@@ -1123,10 +1183,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>5.811323644522304e-16</v>
+        <v>0.0293577327047043</v>
       </c>
       <c r="C34" t="n">
-        <v>0.03869868921389133</v>
+        <v>0.01397062392813674</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1142,18 +1202,18 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>5.551115123125783e-16</v>
+        <v>0.01658118699539279</v>
       </c>
       <c r="C35" t="n">
-        <v>0.01696068190859571</v>
+        <v>0.002503757312647134</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
@@ -1165,20 +1225,16 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>4.440892098500626e-16</v>
+        <v>0.01603448848177134</v>
       </c>
       <c r="C36" t="n">
-        <v>0.02368281303672244</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.5974457964370105</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>Overestimation Unfairness</t>
@@ -1188,14 +1244,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>4.232725281383409e-16</v>
+        <v>0.01277654570931118</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1764926788092537</v>
+        <v>0.1130173148079022</v>
       </c>
       <c r="D37" t="inlineStr"/>
       <c r="E37" t="inlineStr">
@@ -1207,14 +1263,14 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>3.608224830031759e-16</v>
+        <v>-0.003145097103317495</v>
       </c>
       <c r="C38" t="n">
-        <v>0.4199595704726872</v>
+        <v>0.5102765010797522</v>
       </c>
       <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
@@ -1226,18 +1282,18 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>2.532696274926138e-16</v>
+        <v>-0.03315983497090916</v>
       </c>
       <c r="C39" t="n">
-        <v>0.03214567553445502</v>
+        <v>0.007943787406610111</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
@@ -1249,14 +1305,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1.95590071916385e-16</v>
+        <v>-0.03566705959510183</v>
       </c>
       <c r="C40" t="n">
-        <v>0.43298980076659</v>
+        <v>0.1725441944225758</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
@@ -1268,16 +1324,20 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1.52655665885959e-16</v>
+        <v>-0.06395232349412246</v>
       </c>
       <c r="C41" t="n">
-        <v>0.4516754956105316</v>
-      </c>
-      <c r="D41" t="inlineStr"/>
+        <v>2.232340138085049e-05</v>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E41" t="inlineStr">
         <is>
           <t>Overestimation Unfairness</t>
@@ -1287,16 +1347,20 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1.144917494144693e-16</v>
+        <v>-0.1129681772377123</v>
       </c>
       <c r="C42" t="n">
-        <v>0.4659963901519076</v>
-      </c>
-      <c r="D42" t="inlineStr"/>
+        <v>3.72045877105245e-85</v>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E42" t="inlineStr">
         <is>
           <t>Overestimation Unfairness</t>
@@ -1306,16 +1370,20 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>8.326672684688674e-17</v>
+        <v>-0.1450464998115165</v>
       </c>
       <c r="C43" t="n">
-        <v>0.4043941231095659</v>
-      </c>
-      <c r="D43" t="inlineStr"/>
+        <v>1.171141825739817e-11</v>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E43" t="inlineStr">
         <is>
           <t>Overestimation Unfairness</t>
@@ -1329,12 +1397,16 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>6.938893903907228e-17</v>
+        <v>-0.1684783413061179</v>
       </c>
       <c r="C44" t="n">
-        <v>0.7170489152329473</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>6.747184607879148e-11</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>Overestimation Unfairness</t>
@@ -1344,16 +1416,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>5.551115123125783e-17</v>
+        <v>-0.2673928954252174</v>
       </c>
       <c r="C45" t="n">
-        <v>0.7766837018716044</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
+        <v>1.222371556945394e-15</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>Overestimation Unfairness</t>
@@ -1363,332 +1439,352 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>5.551115123125783e-17</v>
+        <v>0.06725005067981352</v>
       </c>
       <c r="C46" t="n">
-        <v>0.4979553266528808</v>
-      </c>
-      <c r="D46" t="inlineStr"/>
+        <v>8.589262756977977e-06</v>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>2.775557561562891e-17</v>
+        <v>0.05086893337990687</v>
       </c>
       <c r="C47" t="n">
-        <v>0.7234396321901178</v>
-      </c>
-      <c r="D47" t="inlineStr"/>
+        <v>4.251355902150951e-06</v>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0</v>
+        <v>0.0255231315853942</v>
       </c>
       <c r="C48" t="n">
-        <v>1</v>
-      </c>
-      <c r="D48" t="inlineStr"/>
+        <v>0.0006139217467348135</v>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-3.469446951953614e-17</v>
+        <v>0.02534580179451273</v>
       </c>
       <c r="C49" t="n">
-        <v>0.9363956677824026</v>
-      </c>
-      <c r="D49" t="inlineStr"/>
+        <v>6.098382562343229e-07</v>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>-8.586881206085195e-17</v>
+        <v>0.01754440855989154</v>
       </c>
       <c r="C50" t="n">
-        <v>0.577843446626108</v>
+        <v>0.5599516311255306</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>-1.318389841742373e-16</v>
+        <v>0.01455895829025606</v>
       </c>
       <c r="C51" t="n">
-        <v>0.7293953779413612</v>
-      </c>
-      <c r="D51" t="inlineStr"/>
+        <v>0.001314329178420079</v>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>-1.804112415015879e-16</v>
+        <v>0.01366948946553563</v>
       </c>
       <c r="C52" t="n">
-        <v>0.186009135378904</v>
-      </c>
-      <c r="D52" t="inlineStr"/>
+        <v>0.001959409170317007</v>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>-2.255140518769849e-16</v>
+        <v>0.01291902221982899</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1464575273174205</v>
-      </c>
-      <c r="D53" t="inlineStr"/>
+        <v>0.003756693141136257</v>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>-2.498001805406602e-16</v>
+        <v>0.009721463404286765</v>
       </c>
       <c r="C54" t="n">
-        <v>0.6791516766896901</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
+        <v>0.0358813410363417</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>-2.706168622523819e-16</v>
+        <v>0.007190147567590478</v>
       </c>
       <c r="C55" t="n">
-        <v>0.47908357740913</v>
+        <v>0.6716198018470095</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>-3.33066907387547e-16</v>
+        <v>0.005999909636655043</v>
       </c>
       <c r="C56" t="n">
-        <v>0.5020536395270276</v>
+        <v>0.6588228368010636</v>
       </c>
       <c r="D56" t="inlineStr"/>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>-3.747002708109903e-16</v>
+        <v>0.005417705317819972</v>
       </c>
       <c r="C57" t="n">
-        <v>0.16987355112413</v>
+        <v>0.8171244927706275</v>
       </c>
       <c r="D57" t="inlineStr"/>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>-3.781697177629439e-16</v>
+        <v>0.004107284551728107</v>
       </c>
       <c r="C58" t="n">
-        <v>0.03633369414698873</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.8321635458106913</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-4.302114220422482e-16</v>
+        <v>-0.001752841664740053</v>
       </c>
       <c r="C59" t="n">
-        <v>0.2675882646279165</v>
+        <v>0.898975186020025</v>
       </c>
       <c r="D59" t="inlineStr"/>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-4.85722573273506e-16</v>
+        <v>-0.005020761830838362</v>
       </c>
       <c r="C60" t="n">
-        <v>0.03395603971193649</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.768656321630261</v>
+      </c>
+      <c r="D60" t="inlineStr"/>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-1.165734175856414e-15</v>
+        <v>-0.009749818575569906</v>
       </c>
       <c r="C61" t="n">
-        <v>0.1938915750520048</v>
+        <v>0.6728840108676776</v>
       </c>
       <c r="D61" t="inlineStr"/>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.3989999999999997</v>
+        <v>-0.01057020155941424</v>
       </c>
       <c r="C62" t="n">
-        <v>0</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.6134385605640986</v>
+      </c>
+      <c r="D62" t="inlineStr"/>
       <c r="E62" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -1698,20 +1794,16 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>1.030425744730223e-15</v>
+        <v>-0.01638111729990628</v>
       </c>
       <c r="C63" t="n">
-        <v>0.001544942668675201</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.1538876328666683</v>
+      </c>
+      <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -1721,14 +1813,14 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>4.336808689942018e-16</v>
+        <v>-0.01671301465943056</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1890317499897633</v>
+        <v>0.1688908993168418</v>
       </c>
       <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
@@ -1740,14 +1832,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>3.885780586188048e-16</v>
+        <v>-0.0223159927897469</v>
       </c>
       <c r="C65" t="n">
-        <v>0.265772044547886</v>
+        <v>0.2817706436396774</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
@@ -1759,14 +1851,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>3.729655473350135e-16</v>
+        <v>-0.0525434599213162</v>
       </c>
       <c r="C66" t="n">
-        <v>0.01529796703906005</v>
+        <v>0.02932394811032397</v>
       </c>
       <c r="D66" t="inlineStr">
         <is>
@@ -1782,16 +1874,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>2.324529457808922e-16</v>
+        <v>-0.3581607143362417</v>
       </c>
       <c r="C67" t="n">
-        <v>0.5297412046079992</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>5.853539023523057e-34</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -1801,366 +1897,382 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>giniindex@5</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2.311519031739095e-16</v>
+        <v>2.451281597470695</v>
       </c>
       <c r="C68" t="n">
-        <v>0.2349571414819246</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
+        <v>5.759520557909456e-31</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Standart Deviation of Popularity Bias</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>1.387778780781446e-16</v>
+        <v>2.110553289894128</v>
       </c>
       <c r="C69" t="n">
-        <v>0.7422921132390718</v>
-      </c>
-      <c r="D69" t="inlineStr"/>
+        <v>2.897299781581285e-21</v>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>9.302454639925628e-17</v>
+        <v>1.738135027539631</v>
       </c>
       <c r="C70" t="n">
-        <v>0.688539951327236</v>
-      </c>
-      <c r="D70" t="inlineStr"/>
+        <v>2.919836476329292e-21</v>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Average Popularity</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-5.030698080332741e-17</v>
+        <v>0.9351874165398371</v>
       </c>
       <c r="C71" t="n">
-        <v>0.9219934447459877</v>
-      </c>
-      <c r="D71" t="inlineStr"/>
+        <v>0.001389327876643435</v>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Value Unfairness of sensitive attribute</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-6.245004513516506e-17</v>
+        <v>0.8652743502407936</v>
       </c>
       <c r="C72" t="n">
-        <v>0.7079043795270558</v>
-      </c>
-      <c r="D72" t="inlineStr"/>
+        <v>7.921635961213591e-05</v>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-9.107298248878237e-17</v>
+        <v>0.7930503109157774</v>
       </c>
       <c r="C73" t="n">
-        <v>0.5975931671815276</v>
-      </c>
-      <c r="D73" t="inlineStr"/>
+        <v>8.360956546562764e-06</v>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Model Name_FairGo_PMF</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>-1.179611963664229e-16</v>
+        <v>0.5433729313816165</v>
       </c>
       <c r="C74" t="n">
-        <v>0.6577170234913428</v>
-      </c>
-      <c r="D74" t="inlineStr"/>
+        <v>1.027705261250743e-29</v>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>-1.370431546021678e-16</v>
+        <v>0.4502092306747716</v>
       </c>
       <c r="C75" t="n">
-        <v>0.2965907101519935</v>
-      </c>
-      <c r="D75" t="inlineStr"/>
+        <v>0.0003958514711247482</v>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>-1.996693825903617e-16</v>
+        <v>0.224223795536958</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1353057531849219</v>
+        <v>0.1136345923873099</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>-2.532696274926138e-16</v>
+        <v>0.1792360910117231</v>
       </c>
       <c r="C77" t="n">
-        <v>0.1893214559650412</v>
-      </c>
-      <c r="D77" t="inlineStr"/>
+        <v>0.0001185107911803831</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Space Size</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>-2.914335439641036e-16</v>
+        <v>0.1446671238289294</v>
       </c>
       <c r="C78" t="n">
-        <v>0.443836635659738</v>
+        <v>0.3551275390189348</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>-5.516420653606247e-16</v>
+        <v>0.1013978008632531</v>
       </c>
       <c r="C79" t="n">
-        <v>0.0007459166111646344</v>
-      </c>
-      <c r="D79" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3756636153352756</v>
+      </c>
+      <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>-5.724587470723463e-16</v>
+        <v>0.07962045508784368</v>
       </c>
       <c r="C80" t="n">
-        <v>0.00383652215906964</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.09094974800869675</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
+          <t>Sensitive Feature_Age</t>
+        </is>
+      </c>
+      <c r="B81" t="n">
+        <v>0.07387129398436729</v>
+      </c>
+      <c r="C81" t="n">
+        <v>0.3396114855746402</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
+      <c r="E81" t="inlineStr">
+        <is>
           <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-      <c r="B81" t="n">
-        <v>-9.992007221626409e-16</v>
-      </c>
-      <c r="C81" t="n">
-        <v>3.008115804373283e-06</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E81" t="inlineStr">
-        <is>
-          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>-1.068589661201713e-15</v>
+        <v>0.02752650687888631</v>
       </c>
       <c r="C82" t="n">
-        <v>0.1615926364878774</v>
+        <v>0.6000459277421242</v>
       </c>
       <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>-0.04455555555555539</v>
+        <v>0.02732085266832912</v>
       </c>
       <c r="C83" t="n">
-        <v>0</v>
-      </c>
-      <c r="D83" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.9096116855686189</v>
+      </c>
+      <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.04455555555555541</v>
+        <v>-0.04326932296567454</v>
       </c>
       <c r="C84" t="n">
-        <v>0</v>
-      </c>
-      <c r="D84" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.7176089683053604</v>
+      </c>
+      <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.04455555555555556</v>
+        <v>-0.6425738213377756</v>
       </c>
       <c r="C85" t="n">
-        <v>0</v>
+        <v>0.01060269084818642</v>
       </c>
       <c r="D85" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
     </row>
@@ -2171,10 +2283,10 @@
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.04455555555555557</v>
+        <v>-0.7008316766179419</v>
       </c>
       <c r="C86" t="n">
-        <v>0</v>
+        <v>3.776572608918009e-42</v>
       </c>
       <c r="D86" t="inlineStr">
         <is>
@@ -2183,21 +2295,21 @@
       </c>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.08911111111111018</v>
+        <v>-1.144950321430394</v>
       </c>
       <c r="C87" t="n">
-        <v>0</v>
+        <v>3.257740518958521e-06</v>
       </c>
       <c r="D87" t="inlineStr">
         <is>
@@ -2206,21 +2318,21 @@
       </c>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>popularitypercentage@5</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.08911111111111097</v>
+        <v>-1.373474427191025</v>
       </c>
       <c r="C88" t="n">
-        <v>0</v>
+        <v>2.045481017933695e-20</v>
       </c>
       <c r="D88" t="inlineStr">
         <is>
@@ -2229,21 +2341,21 @@
       </c>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.08911111111111139</v>
+        <v>-1.42380052387789</v>
       </c>
       <c r="C89" t="n">
-        <v>0</v>
+        <v>6.560351347648212e-06</v>
       </c>
       <c r="D89" t="inlineStr">
         <is>
@@ -2251,666 +2363,6 @@
         </is>
       </c>
       <c r="E89" t="inlineStr">
-        <is>
-          <t>Generalized Cross Entropy</t>
-        </is>
-      </c>
-    </row>
-    <row r="90">
-      <c r="A90" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Age</t>
-        </is>
-      </c>
-      <c r="B90" t="n">
-        <v>-0.08911111111111165</v>
-      </c>
-      <c r="C90" t="n">
-        <v>0</v>
-      </c>
-      <c r="D90" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E90" t="inlineStr">
-        <is>
-          <t>Generalized Cross Entropy</t>
-        </is>
-      </c>
-    </row>
-    <row r="91">
-      <c r="A91" t="inlineStr">
-        <is>
-          <t>const</t>
-        </is>
-      </c>
-      <c r="B91" t="n">
-        <v>-0.1782222222222217</v>
-      </c>
-      <c r="C91" t="n">
-        <v>0</v>
-      </c>
-      <c r="D91" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E91" t="inlineStr">
-        <is>
-          <t>Generalized Cross Entropy</t>
-        </is>
-      </c>
-    </row>
-    <row r="92">
-      <c r="A92" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-      <c r="B92" t="n">
-        <v>4.768999999999995</v>
-      </c>
-      <c r="C92" t="n">
-        <v>0</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E92" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="93">
-      <c r="A93" t="inlineStr">
-        <is>
-          <t>const</t>
-        </is>
-      </c>
-      <c r="B93" t="n">
-        <v>0.2271111111111148</v>
-      </c>
-      <c r="C93" t="n">
-        <v>0</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E93" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="94">
-      <c r="A94" t="inlineStr">
-        <is>
-          <t>Dataset_ml1m</t>
-        </is>
-      </c>
-      <c r="B94" t="n">
-        <v>0.1135555555555603</v>
-      </c>
-      <c r="C94" t="n">
-        <v>0</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E94" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="95">
-      <c r="A95" t="inlineStr">
-        <is>
-          <t>Dataset_BX</t>
-        </is>
-      </c>
-      <c r="B95" t="n">
-        <v>0.1135555555555553</v>
-      </c>
-      <c r="C95" t="n">
-        <v>0</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E95" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="96">
-      <c r="A96" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Age</t>
-        </is>
-      </c>
-      <c r="B96" t="n">
-        <v>0.1135555555555533</v>
-      </c>
-      <c r="C96" t="n">
-        <v>0</v>
-      </c>
-      <c r="D96" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E96" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="97">
-      <c r="A97" t="inlineStr">
-        <is>
-          <t>Sensitive Feature_Gender</t>
-        </is>
-      </c>
-      <c r="B97" t="n">
-        <v>0.113555555555553</v>
-      </c>
-      <c r="C97" t="n">
-        <v>0</v>
-      </c>
-      <c r="D97" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E97" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="98">
-      <c r="A98" t="inlineStr">
-        <is>
-          <t>Model Name_FairGo_PMF</t>
-        </is>
-      </c>
-      <c r="B98" t="n">
-        <v>0.0567777777777797</v>
-      </c>
-      <c r="C98" t="n">
-        <v>0</v>
-      </c>
-      <c r="D98" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E98" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="99">
-      <c r="A99" t="inlineStr">
-        <is>
-          <t>Model Name_PFCN_MLP</t>
-        </is>
-      </c>
-      <c r="B99" t="n">
-        <v>0.05677777777777866</v>
-      </c>
-      <c r="C99" t="n">
-        <v>0</v>
-      </c>
-      <c r="D99" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E99" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="100">
-      <c r="A100" t="inlineStr">
-        <is>
-          <t>Model Name_NFCF</t>
-        </is>
-      </c>
-      <c r="B100" t="n">
-        <v>0.05677777777777793</v>
-      </c>
-      <c r="C100" t="n">
-        <v>0</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E100" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="101">
-      <c r="A101" t="inlineStr">
-        <is>
-          <t>Model Name_FOCF</t>
-        </is>
-      </c>
-      <c r="B101" t="n">
-        <v>0.05677777777777682</v>
-      </c>
-      <c r="C101" t="n">
-        <v>0</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E101" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="102">
-      <c r="A102" t="inlineStr">
-        <is>
-          <t>Space Size</t>
-        </is>
-      </c>
-      <c r="B102" t="n">
-        <v>8.992806499463768e-15</v>
-      </c>
-      <c r="C102" t="n">
-        <v>0.1036202076158566</v>
-      </c>
-      <c r="D102" t="inlineStr"/>
-      <c r="E102" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="103">
-      <c r="A103" t="inlineStr">
-        <is>
-          <t>Mean Rating</t>
-        </is>
-      </c>
-      <c r="B103" t="n">
-        <v>8.43769498715119e-15</v>
-      </c>
-      <c r="C103" t="n">
-        <v>0.4458704531094044</v>
-      </c>
-      <c r="D103" t="inlineStr"/>
-      <c r="E103" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="104">
-      <c r="A104" t="inlineStr">
-        <is>
-          <t>Overestimation Unfairness of sensitive attribute</t>
-        </is>
-      </c>
-      <c r="B104" t="n">
-        <v>5.162537064506978e-15</v>
-      </c>
-      <c r="C104" t="n">
-        <v>0.06529738953974513</v>
-      </c>
-      <c r="D104" t="inlineStr"/>
-      <c r="E104" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="105">
-      <c r="A105" t="inlineStr">
-        <is>
-          <t>Number of Ratings</t>
-        </is>
-      </c>
-      <c r="B105" t="n">
-        <v>4.690692279041286e-15</v>
-      </c>
-      <c r="C105" t="n">
-        <v>0.06122276453327194</v>
-      </c>
-      <c r="D105" t="inlineStr"/>
-      <c r="E105" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="106">
-      <c r="A106" t="inlineStr">
-        <is>
-          <t>Value Unfairness of sensitive attribute</t>
-        </is>
-      </c>
-      <c r="B106" t="n">
-        <v>4.218847493575595e-15</v>
-      </c>
-      <c r="C106" t="n">
-        <v>0.08134874284094148</v>
-      </c>
-      <c r="D106" t="inlineStr"/>
-      <c r="E106" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="107">
-      <c r="A107" t="inlineStr">
-        <is>
-          <t>Standart Deviation of Rating</t>
-        </is>
-      </c>
-      <c r="B107" t="n">
-        <v>3.108624468950438e-15</v>
-      </c>
-      <c r="C107" t="n">
-        <v>0.5623654494819169</v>
-      </c>
-      <c r="D107" t="inlineStr"/>
-      <c r="E107" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="108">
-      <c r="A108" t="inlineStr">
-        <is>
-          <t>hit@5</t>
-        </is>
-      </c>
-      <c r="B108" t="n">
-        <v>2.664535259100376e-15</v>
-      </c>
-      <c r="C108" t="n">
-        <v>0.3521640692811184</v>
-      </c>
-      <c r="D108" t="inlineStr"/>
-      <c r="E108" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="109">
-      <c r="A109" t="inlineStr">
-        <is>
-          <t>Shape</t>
-        </is>
-      </c>
-      <c r="B109" t="n">
-        <v>9.992007221626409e-16</v>
-      </c>
-      <c r="C109" t="n">
-        <v>0.6723834137606638</v>
-      </c>
-      <c r="D109" t="inlineStr"/>
-      <c r="E109" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="110">
-      <c r="A110" t="inlineStr">
-        <is>
-          <t>giniindex@5</t>
-        </is>
-      </c>
-      <c r="B110" t="n">
-        <v>9.992007221626409e-16</v>
-      </c>
-      <c r="C110" t="n">
-        <v>0.795841141784949</v>
-      </c>
-      <c r="D110" t="inlineStr"/>
-      <c r="E110" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="111">
-      <c r="A111" t="inlineStr">
-        <is>
-          <t>Average Popularity</t>
-        </is>
-      </c>
-      <c r="B111" t="n">
-        <v>2.220446049250313e-16</v>
-      </c>
-      <c r="C111" t="n">
-        <v>0.9762304443299523</v>
-      </c>
-      <c r="D111" t="inlineStr"/>
-      <c r="E111" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="112">
-      <c r="A112" t="inlineStr">
-        <is>
-          <t>Gini User</t>
-        </is>
-      </c>
-      <c r="B112" t="n">
-        <v>1.110223024625157e-16</v>
-      </c>
-      <c r="C112" t="n">
-        <v>0.9686148090787136</v>
-      </c>
-      <c r="D112" t="inlineStr"/>
-      <c r="E112" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="113">
-      <c r="A113" t="inlineStr">
-        <is>
-          <t>Skewness of Long Tail Items</t>
-        </is>
-      </c>
-      <c r="B113" t="n">
-        <v>-1.665334536937735e-16</v>
-      </c>
-      <c r="C113" t="n">
-        <v>0.9302949606672999</v>
-      </c>
-      <c r="D113" t="inlineStr"/>
-      <c r="E113" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="114">
-      <c r="A114" t="inlineStr">
-        <is>
-          <t>Skewness of Popularity Bias</t>
-        </is>
-      </c>
-      <c r="B114" t="n">
-        <v>-2.775557561562891e-16</v>
-      </c>
-      <c r="C114" t="n">
-        <v>0.8861015660029918</v>
-      </c>
-      <c r="D114" t="inlineStr"/>
-      <c r="E114" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="115">
-      <c r="A115" t="inlineStr">
-        <is>
-          <t>popularitypercentage@5</t>
-        </is>
-      </c>
-      <c r="B115" t="n">
-        <v>-7.771561172376096e-16</v>
-      </c>
-      <c r="C115" t="n">
-        <v>0.7269811213861481</v>
-      </c>
-      <c r="D115" t="inlineStr"/>
-      <c r="E115" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="116">
-      <c r="A116" t="inlineStr">
-        <is>
-          <t>Standart Deviation of Popularity Bias</t>
-        </is>
-      </c>
-      <c r="B116" t="n">
-        <v>-2.886579864025407e-15</v>
-      </c>
-      <c r="C116" t="n">
-        <v>0.63730903717762</v>
-      </c>
-      <c r="D116" t="inlineStr"/>
-      <c r="E116" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Density</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>-3.774758283725532e-15</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.4560092068653686</v>
-      </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Number of Items</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>-5.773159728050814e-15</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.08670470896436527</v>
-      </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>-6.078471059822732e-15</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.1964762718623199</v>
-      </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Generalized Cross Entropy</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>-8.326672684688674e-15</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.0005986607099538837</v>
-      </c>
-      <c r="D120" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>Number of Users</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>-9.214851104388799e-15</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.05455236278098327</v>
-      </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
         <is>
           <t>Differential Fairness of sensitive attribute</t>
         </is>

--- a/evaluation/OLS_Regression_Feature_Analysis_fairness_measure_based.xlsx
+++ b/evaluation/OLS_Regression_Feature_Analysis_fairness_measure_based.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E89"/>
+  <dimension ref="A1:E121"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -463,20 +463,16 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.1682677208212363</v>
+        <v>127196675657.1627</v>
       </c>
       <c r="C2" t="n">
-        <v>1.264234405528467e-66</v>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3860885303910564</v>
+      </c>
+      <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -486,20 +482,16 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.1212678228727573</v>
+        <v>127196675657.1198</v>
       </c>
       <c r="C3" t="n">
-        <v>5.98465007139279e-13</v>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3860885303912168</v>
+      </c>
+      <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -509,18 +501,18 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1053753278504067</v>
+        <v>0.1584466679378452</v>
       </c>
       <c r="C4" t="n">
-        <v>9.969408613694618e-18</v>
+        <v>0.003225918675712088</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
@@ -532,14 +524,14 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1010867541204254</v>
+        <v>0.1278970590807847</v>
       </c>
       <c r="C5" t="n">
-        <v>4.359855533334364e-55</v>
+        <v>1.358750937278038e-10</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -555,14 +547,14 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.1006825553719108</v>
+        <v>0.06239364566684574</v>
       </c>
       <c r="C6" t="n">
-        <v>5.961083735307565e-121</v>
+        <v>0.0001867888350857932</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -578,18 +570,18 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.06718096670081082</v>
+        <v>0.03286039572573429</v>
       </c>
       <c r="C7" t="n">
-        <v>3.304340467464925e-53</v>
+        <v>0.02150707099135269</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -601,18 +593,18 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.06289239297082985</v>
+        <v>0.03091721455887685</v>
       </c>
       <c r="C8" t="n">
-        <v>1.410613990439584e-11</v>
+        <v>0.001276107560843811</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -624,20 +616,16 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.05934185732815137</v>
+        <v>0.02046687682415484</v>
       </c>
       <c r="C9" t="n">
-        <v>0.0004012135230810572</v>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3271425958715881</v>
+      </c>
+      <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -647,20 +635,16 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.05282686073552929</v>
+        <v>0.01605190007677026</v>
       </c>
       <c r="C10" t="n">
-        <v>6.476944133163369e-44</v>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.4820533786187839</v>
+      </c>
+      <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -670,20 +654,16 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.0503209406023828</v>
+        <v>0.01400423692656907</v>
       </c>
       <c r="C11" t="n">
-        <v>5.756143330401118e-06</v>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.4500871787512734</v>
+      </c>
+      <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -693,20 +673,16 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.04581186940675921</v>
+        <v>0.013316026415644</v>
       </c>
       <c r="C12" t="n">
-        <v>2.69002835267264e-06</v>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.49749800205985</v>
+      </c>
+      <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -716,20 +692,16 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.03922865366436765</v>
+        <v>0.01197477918450193</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0003157246175244627</v>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.2355338280571591</v>
+      </c>
+      <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -739,14 +711,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.0215514358546197</v>
+        <v>0.004522620520149609</v>
       </c>
       <c r="C14" t="n">
-        <v>0.2491489690088689</v>
+        <v>0.6629522921185196</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -758,20 +730,16 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>0.01740742653241278</v>
+        <v>-0.02020245507728655</v>
       </c>
       <c r="C15" t="n">
-        <v>1.641153985959028e-06</v>
-      </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.246987258185049</v>
+      </c>
+      <c r="D15" t="inlineStr"/>
       <c r="E15" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -781,16 +749,20 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>0.01054122151087101</v>
+        <v>-0.02351314049408591</v>
       </c>
       <c r="C16" t="n">
-        <v>0.636693928407006</v>
-      </c>
-      <c r="D16" t="inlineStr"/>
+        <v>0.0002051180439762931</v>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E16" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -800,14 +772,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>0.004261309676521404</v>
+        <v>-0.03433264308707863</v>
       </c>
       <c r="C17" t="n">
-        <v>0.8170930628583062</v>
+        <v>0.08783921558172038</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -819,14 +791,14 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.002649121818615843</v>
+        <v>-0.05082620357188317</v>
       </c>
       <c r="C18" t="n">
-        <v>0.4729903845057094</v>
+        <v>0.076220055009684</v>
       </c>
       <c r="D18" t="inlineStr"/>
       <c r="E18" t="inlineStr">
@@ -838,16 +810,20 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.003780152294385658</v>
+        <v>-0.1942948951402504</v>
       </c>
       <c r="C19" t="n">
-        <v>0.7799763273974888</v>
-      </c>
-      <c r="D19" t="inlineStr"/>
+        <v>3.910174726341895e-14</v>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E19" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -857,20 +833,16 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-0.04090926882058667</v>
+        <v>-26304771682.87946</v>
       </c>
       <c r="C20" t="n">
-        <v>0.008310453925751853</v>
-      </c>
-      <c r="D20" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.3860885303924064</v>
+      </c>
+      <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -880,20 +852,16 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-0.0513833640256063</v>
+        <v>-26304771682.90724</v>
       </c>
       <c r="C21" t="n">
-        <v>0.0001738196530145852</v>
-      </c>
-      <c r="D21" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3860885303919054</v>
+      </c>
+      <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -903,20 +871,16 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-0.07472526108770046</v>
+        <v>-26304771682.91965</v>
       </c>
       <c r="C22" t="n">
-        <v>0.00010873626364705</v>
-      </c>
-      <c r="D22" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3860885303916837</v>
+      </c>
+      <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -926,20 +890,16 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-0.1843785681133646</v>
+        <v>-39110967622.66479</v>
       </c>
       <c r="C23" t="n">
-        <v>5.200240237896049e-14</v>
-      </c>
-      <c r="D23" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3860885303928127</v>
+      </c>
+      <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -949,221 +909,189 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>0.2427927580936384</v>
+        <v>-39110967622.79883</v>
       </c>
       <c r="C24" t="n">
-        <v>7.378184203510355e-25</v>
-      </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3860885303911976</v>
+      </c>
+      <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Value Unfairness</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B25" t="n">
-        <v>0.2139540583886624</v>
+        <v>-61780936351.25394</v>
       </c>
       <c r="C25" t="n">
-        <v>2.760439086358574e-20</v>
-      </c>
-      <c r="D25" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3860885303921789</v>
+      </c>
+      <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Value Unfairness</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0.2117084844458111</v>
+        <v>84706664631.60715</v>
       </c>
       <c r="C26" t="n">
-        <v>7.938966056305479e-50</v>
-      </c>
-      <c r="D26" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3584065328749129</v>
+      </c>
+      <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>0.1366905487625105</v>
+        <v>53624302471.0119</v>
       </c>
       <c r="C27" t="n">
-        <v>4.422097160746366e-13</v>
-      </c>
-      <c r="D27" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3584065328739208</v>
+      </c>
+      <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0.1184434896451408</v>
+        <v>53624302470.81418</v>
       </c>
       <c r="C28" t="n">
-        <v>2.747537373674552e-06</v>
-      </c>
-      <c r="D28" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3584065328757046</v>
+      </c>
+      <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>0.1140580060977555</v>
+        <v>36065971232.47549</v>
       </c>
       <c r="C29" t="n">
-        <v>9.690939524990719e-10</v>
-      </c>
-      <c r="D29" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3584065328736217</v>
+      </c>
+      <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>0.1026507511473019</v>
+        <v>36065971232.41137</v>
       </c>
       <c r="C30" t="n">
-        <v>3.43562718220049e-78</v>
-      </c>
-      <c r="D30" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3584065328744761</v>
+      </c>
+      <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0.06251756767561392</v>
+        <v>36065971232.27232</v>
       </c>
       <c r="C31" t="n">
-        <v>0.0001345451692438948</v>
-      </c>
-      <c r="D31" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3584065328763304</v>
+      </c>
+      <c r="D31" t="inlineStr"/>
       <c r="E31" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.04694517815411609</v>
+        <v>0.3611787595997898</v>
       </c>
       <c r="C32" t="n">
-        <v>0.001515892830332539</v>
+        <v>2.439113517521793e-07</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E32" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.04282025589843197</v>
+        <v>0.1653105846406115</v>
       </c>
       <c r="C33" t="n">
-        <v>1.658634827098603e-17</v>
+        <v>4.137688814181539e-14</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1172,133 +1100,145 @@
       </c>
       <c r="E33" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.0293577327047043</v>
+        <v>0.1622374904347077</v>
       </c>
       <c r="C34" t="n">
-        <v>0.01397062392813674</v>
+        <v>5.613185253902093e-36</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E34" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.01658118699539279</v>
+        <v>0.144734667001142</v>
       </c>
       <c r="C35" t="n">
-        <v>0.002503757312647134</v>
+        <v>1.795215452689901e-08</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E35" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.01603448848177134</v>
+        <v>0.1073623721816882</v>
       </c>
       <c r="C36" t="n">
-        <v>0.5974457964370105</v>
-      </c>
-      <c r="D36" t="inlineStr"/>
+        <v>8.458890267705426e-09</v>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E36" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.01277654570931118</v>
+        <v>0.08424830898273733</v>
       </c>
       <c r="C37" t="n">
-        <v>0.1130173148079022</v>
-      </c>
-      <c r="D37" t="inlineStr"/>
+        <v>0.0002008344987773918</v>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E37" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>-0.003145097103317495</v>
+        <v>0.06282608963661859</v>
       </c>
       <c r="C38" t="n">
-        <v>0.5102765010797522</v>
-      </c>
-      <c r="D38" t="inlineStr"/>
+        <v>0.01351670133368306</v>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E38" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>-0.03315983497090916</v>
+        <v>0.03599278758833539</v>
       </c>
       <c r="C39" t="n">
-        <v>0.007943787406610111</v>
+        <v>1.157758236526703e-05</v>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E39" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
@@ -1309,144 +1249,124 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>-0.03566705959510183</v>
+        <v>0.01274090584785793</v>
       </c>
       <c r="C40" t="n">
-        <v>0.1725441944225758</v>
+        <v>0.6241856189745869</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>-0.06395232349412246</v>
+        <v>0.003988850742294936</v>
       </c>
       <c r="C41" t="n">
-        <v>2.232340138085049e-05</v>
-      </c>
-      <c r="D41" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8925868562250086</v>
+      </c>
+      <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>-0.1129681772377123</v>
+        <v>0.001826795515513589</v>
       </c>
       <c r="C42" t="n">
-        <v>3.72045877105245e-85</v>
-      </c>
-      <c r="D42" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8917698779097741</v>
+      </c>
+      <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.1450464998115165</v>
+        <v>-0.0001826032283298376</v>
       </c>
       <c r="C43" t="n">
-        <v>1.171141825739817e-11</v>
-      </c>
-      <c r="D43" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.9888415165931638</v>
+      </c>
+      <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.1684783413061179</v>
+        <v>-0.02392638819539071</v>
       </c>
       <c r="C44" t="n">
-        <v>6.747184607879148e-11</v>
-      </c>
-      <c r="D44" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3759618951212313</v>
+      </c>
+      <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.2673928954252174</v>
+        <v>-0.03959297331765606</v>
       </c>
       <c r="C45" t="n">
-        <v>1.222371556945394e-15</v>
-      </c>
-      <c r="D45" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.285491610878516</v>
+      </c>
+      <c r="D45" t="inlineStr"/>
       <c r="E45" t="inlineStr">
         <is>
-          <t>Overestimation Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0.06725005067981352</v>
+        <v>-0.118775232011679</v>
       </c>
       <c r="C46" t="n">
-        <v>8.589262756977977e-06</v>
+        <v>8.767072387047657e-07</v>
       </c>
       <c r="D46" t="inlineStr">
         <is>
@@ -1455,21 +1375,21 @@
       </c>
       <c r="E46" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>0.05086893337990687</v>
+        <v>-0.2031258716578202</v>
       </c>
       <c r="C47" t="n">
-        <v>4.251355902150951e-06</v>
+        <v>7.95896344323311e-10</v>
       </c>
       <c r="D47" t="inlineStr">
         <is>
@@ -1478,7 +1398,7 @@
       </c>
       <c r="E47" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
@@ -1489,19 +1409,15 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>0.0255231315853942</v>
+        <v>-174396938335.0989</v>
       </c>
       <c r="C48" t="n">
-        <v>0.0006139217467348135</v>
-      </c>
-      <c r="D48" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3584065328743249</v>
+      </c>
+      <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
@@ -1512,84 +1428,72 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>0.02534580179451273</v>
+        <v>-174396938335.1037</v>
       </c>
       <c r="C49" t="n">
-        <v>6.098382562343229e-07</v>
-      </c>
-      <c r="D49" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.358406532874312</v>
+      </c>
+      <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>0.01754440855989154</v>
+        <v>1457284342219.585</v>
       </c>
       <c r="C50" t="n">
-        <v>0.5599516311255306</v>
+        <v>0.1605628670029695</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>0.01455895829025606</v>
+        <v>922546728680.5264</v>
       </c>
       <c r="C51" t="n">
-        <v>0.001314329178420079</v>
-      </c>
-      <c r="D51" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.1605628670027753</v>
+      </c>
+      <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>0.01366948946553563</v>
+        <v>922546728679.6775</v>
       </c>
       <c r="C52" t="n">
-        <v>0.001959409170317007</v>
-      </c>
-      <c r="D52" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.1605628670031703</v>
+      </c>
+      <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
@@ -1600,137 +1504,145 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>0.01291902221982899</v>
+        <v>620475087674.7527</v>
       </c>
       <c r="C53" t="n">
-        <v>0.003756693141136257</v>
-      </c>
-      <c r="D53" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.1605628670026112</v>
+      </c>
+      <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>0.009721463404286765</v>
+        <v>620475087674.472</v>
       </c>
       <c r="C54" t="n">
-        <v>0.0358813410363417</v>
-      </c>
-      <c r="D54" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.1605628670028006</v>
+      </c>
+      <c r="D54" t="inlineStr"/>
       <c r="E54" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>0.007190147567590478</v>
+        <v>620475087673.4316</v>
       </c>
       <c r="C55" t="n">
-        <v>0.6716198018470095</v>
+        <v>0.160562867003503</v>
       </c>
       <c r="D55" t="inlineStr"/>
       <c r="E55" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>0.005999909636655043</v>
+        <v>2.566116564496797</v>
       </c>
       <c r="C56" t="n">
-        <v>0.6588228368010636</v>
-      </c>
-      <c r="D56" t="inlineStr"/>
+        <v>2.045530443794688e-18</v>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E56" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>0.005417705317819972</v>
+        <v>1.712427752465564</v>
       </c>
       <c r="C57" t="n">
-        <v>0.8171244927706275</v>
-      </c>
-      <c r="D57" t="inlineStr"/>
+        <v>0.02867372867253161</v>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E57" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.004107284551728107</v>
+        <v>0.974812184469654</v>
       </c>
       <c r="C58" t="n">
-        <v>0.8321635458106913</v>
-      </c>
-      <c r="D58" t="inlineStr"/>
+        <v>6.191010673640015e-05</v>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E58" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>-0.001752841664740053</v>
+        <v>0.9367916080167804</v>
       </c>
       <c r="C59" t="n">
-        <v>0.898975186020025</v>
-      </c>
-      <c r="D59" t="inlineStr"/>
+        <v>0.000239728653941443</v>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E59" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
@@ -1741,110 +1653,126 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>-0.005020761830838362</v>
+        <v>0.8445747145521173</v>
       </c>
       <c r="C60" t="n">
-        <v>0.768656321630261</v>
-      </c>
-      <c r="D60" t="inlineStr"/>
+        <v>2.666244120931638e-19</v>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E60" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>-0.009749818575569906</v>
+        <v>0.7100759568841553</v>
       </c>
       <c r="C61" t="n">
-        <v>0.6728840108676776</v>
-      </c>
-      <c r="D61" t="inlineStr"/>
+        <v>4.246878303591075e-07</v>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E61" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>-0.01057020155941424</v>
+        <v>0.6512757884967284</v>
       </c>
       <c r="C62" t="n">
-        <v>0.6134385605640986</v>
-      </c>
-      <c r="D62" t="inlineStr"/>
+        <v>0.03246741722368347</v>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E62" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>-0.01638111729990628</v>
+        <v>0.5215925312495024</v>
       </c>
       <c r="C63" t="n">
-        <v>0.1538876328666683</v>
+        <v>0.2113626178371634</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>-0.01671301465943056</v>
+        <v>0.5030438510978961</v>
       </c>
       <c r="C64" t="n">
-        <v>0.1688908993168418</v>
-      </c>
-      <c r="D64" t="inlineStr"/>
+        <v>0.01569468828495202</v>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E64" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>-0.0223159927897469</v>
+        <v>0.2847021176188256</v>
       </c>
       <c r="C65" t="n">
-        <v>0.2817706436396774</v>
+        <v>0.05984562770225168</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
@@ -1855,102 +1783,86 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>-0.0525434599213162</v>
+        <v>0.1929648251839821</v>
       </c>
       <c r="C66" t="n">
-        <v>0.02932394811032397</v>
-      </c>
-      <c r="D66" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.5098068501062615</v>
+      </c>
+      <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>-0.3581607143362417</v>
+        <v>0.1720163554333411</v>
       </c>
       <c r="C67" t="n">
-        <v>5.853539023523057e-34</v>
-      </c>
-      <c r="D67" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.6049668987367403</v>
+      </c>
+      <c r="D67" t="inlineStr"/>
       <c r="E67" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>giniindex@5</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>2.451281597470695</v>
+        <v>0.1610466017446854</v>
       </c>
       <c r="C68" t="n">
-        <v>5.759520557909456e-31</v>
-      </c>
-      <c r="D68" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5731862527777896</v>
+      </c>
+      <c r="D68" t="inlineStr"/>
       <c r="E68" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>2.110553289894128</v>
+        <v>-0.1031903743323588</v>
       </c>
       <c r="C69" t="n">
-        <v>2.897299781581285e-21</v>
-      </c>
-      <c r="D69" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.4826755684422687</v>
+      </c>
+      <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>1.738135027539631</v>
+        <v>-1.480874146599272</v>
       </c>
       <c r="C70" t="n">
-        <v>2.919836476329292e-21</v>
+        <v>5.382004675380543e-08</v>
       </c>
       <c r="D70" t="inlineStr">
         <is>
@@ -1959,412 +1871,1028 @@
       </c>
       <c r="E70" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>0.9351874165398371</v>
+        <v>-2.122262854714372</v>
       </c>
       <c r="C71" t="n">
-        <v>0.001389327876643435</v>
+        <v>1.112199029564394e-08</v>
       </c>
       <c r="D71" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>0.8652743502407936</v>
+        <v>-3000306158573.705</v>
       </c>
       <c r="C72" t="n">
-        <v>7.921635961213591e-05</v>
-      </c>
-      <c r="D72" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1605628670029937</v>
+      </c>
+      <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>0.7930503109157774</v>
+        <v>-3000306158573.819</v>
       </c>
       <c r="C73" t="n">
-        <v>8.360956546562764e-06</v>
-      </c>
-      <c r="D73" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1605628670029779</v>
+      </c>
+      <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>Model Name_FairGo_PMF</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>0.5433729313816165</v>
+        <v>53846936519.80331</v>
       </c>
       <c r="C74" t="n">
-        <v>1.027705261250743e-29</v>
-      </c>
-      <c r="D74" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5096286179744508</v>
+      </c>
+      <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>0.4502092306747716</v>
+        <v>34088278928.6789</v>
       </c>
       <c r="C75" t="n">
-        <v>0.0003958514711247482</v>
-      </c>
-      <c r="D75" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5096286179728475</v>
+      </c>
+      <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>0.224223795536958</v>
+        <v>34088278928.42167</v>
       </c>
       <c r="C76" t="n">
-        <v>0.1136345923873099</v>
+        <v>0.5096286179760522</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>0.1792360910117231</v>
+        <v>22926673738.37901</v>
       </c>
       <c r="C77" t="n">
-        <v>0.0001185107911803831</v>
-      </c>
-      <c r="D77" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5096286179744065</v>
+      </c>
+      <c r="D77" t="inlineStr"/>
       <c r="E77" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>0.1446671238289294</v>
+        <v>22926673738.37782</v>
       </c>
       <c r="C78" t="n">
-        <v>0.3551275390189348</v>
+        <v>0.5096286179744279</v>
       </c>
       <c r="D78" t="inlineStr"/>
       <c r="E78" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>0.1013978008632531</v>
+        <v>22926673738.37313</v>
       </c>
       <c r="C79" t="n">
-        <v>0.3756636153352756</v>
+        <v>0.5096286179745166</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.07962045508784368</v>
+        <v>0.2524861040873784</v>
       </c>
       <c r="C80" t="n">
-        <v>0.09094974800869675</v>
-      </c>
-      <c r="D80" t="inlineStr"/>
+        <v>4.366264937854413e-05</v>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E80" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.07387129398436729</v>
+        <v>0.06863987480647354</v>
       </c>
       <c r="C81" t="n">
-        <v>0.3396114855746402</v>
-      </c>
-      <c r="D81" t="inlineStr"/>
+        <v>0.01793028941209717</v>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E81" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Average Long Tail Items</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.02752650687888631</v>
+        <v>0.04258484052988883</v>
       </c>
       <c r="C82" t="n">
-        <v>0.6000459277421242</v>
-      </c>
-      <c r="D82" t="inlineStr"/>
+        <v>0.03333337613923343</v>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E82" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.02732085266832912</v>
+        <v>0.02588595400774488</v>
       </c>
       <c r="C83" t="n">
-        <v>0.9096116855686189</v>
+        <v>0.3224759742525082</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>-0.04326932296567454</v>
+        <v>0.01180203661851828</v>
       </c>
       <c r="C84" t="n">
-        <v>0.7176089683053604</v>
+        <v>0.3074723056794118</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.6425738213377756</v>
+        <v>-0.0007357277745956362</v>
       </c>
       <c r="C85" t="n">
-        <v>0.01060269084818642</v>
-      </c>
-      <c r="D85" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.9506520074884623</v>
+      </c>
+      <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.7008316766179419</v>
+        <v>-0.003788026938107759</v>
       </c>
       <c r="C86" t="n">
-        <v>3.776572608918009e-42</v>
-      </c>
-      <c r="D86" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.6002340488733409</v>
+      </c>
+      <c r="D86" t="inlineStr"/>
       <c r="E86" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-1.144950321430394</v>
+        <v>-0.01894472381988365</v>
       </c>
       <c r="C87" t="n">
-        <v>3.257740518958521e-06</v>
-      </c>
-      <c r="D87" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3995647711398654</v>
+      </c>
+      <c r="D87" t="inlineStr"/>
       <c r="E87" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>popularitypercentage@5</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-1.373474427191025</v>
+        <v>-0.02168641812153495</v>
       </c>
       <c r="C88" t="n">
-        <v>2.045481017933695e-20</v>
-      </c>
-      <c r="D88" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3073934391368306</v>
+      </c>
+      <c r="D88" t="inlineStr"/>
       <c r="E88" t="inlineStr">
         <is>
-          <t>Differential Fairness of sensitive attribute</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
+          <t>Gini User</t>
+        </is>
+      </c>
+      <c r="B89" t="n">
+        <v>-0.02290179493409267</v>
+      </c>
+      <c r="C89" t="n">
+        <v>0.1615706364942665</v>
+      </c>
+      <c r="D89" t="inlineStr"/>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>Generalized Cross Entropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" t="inlineStr">
+        <is>
+          <t>Density</t>
+        </is>
+      </c>
+      <c r="B90" t="n">
+        <v>-0.0280519319785997</v>
+      </c>
+      <c r="C90" t="n">
+        <v>0.2233050682256698</v>
+      </c>
+      <c r="D90" t="inlineStr"/>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>Generalized Cross Entropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" t="inlineStr">
+        <is>
+          <t>Number of Items</t>
+        </is>
+      </c>
+      <c r="B91" t="n">
+        <v>-0.03047600375161074</v>
+      </c>
+      <c r="C91" t="n">
+        <v>0.1768700700891662</v>
+      </c>
+      <c r="D91" t="inlineStr"/>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>Generalized Cross Entropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" t="inlineStr">
+        <is>
+          <t>Number of Users</t>
+        </is>
+      </c>
+      <c r="B92" t="n">
+        <v>-0.04324752510699748</v>
+      </c>
+      <c r="C92" t="n">
+        <v>0.02344577330135416</v>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>Generalized Cross Entropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" t="inlineStr">
+        <is>
+          <t>Rating per User</t>
+        </is>
+      </c>
+      <c r="B93" t="n">
+        <v>-0.05296844333103505</v>
+      </c>
+      <c r="C93" t="n">
+        <v>1.589629558959922e-06</v>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>Generalized Cross Entropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" t="inlineStr">
+        <is>
+          <t>Standart Deviation of Rating</t>
+        </is>
+      </c>
+      <c r="B94" t="n">
+        <v>-0.1031889659072419</v>
+      </c>
+      <c r="C94" t="n">
+        <v>0.001713028135708866</v>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>Generalized Cross Entropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" t="inlineStr">
+        <is>
+          <t>Difference between Sensitive Attribute Percentage</t>
+        </is>
+      </c>
+      <c r="B95" t="n">
+        <v>-0.3095975044952454</v>
+      </c>
+      <c r="C95" t="n">
+        <v>3.317791375857856e-35</v>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>Generalized Cross Entropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" t="inlineStr">
+        <is>
+          <t>Sensitive Feature_Gender</t>
+        </is>
+      </c>
+      <c r="B96" t="n">
+        <v>-110861889186.7261</v>
+      </c>
+      <c r="C96" t="n">
+        <v>0.5096286179744614</v>
+      </c>
+      <c r="D96" t="inlineStr"/>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>Generalized Cross Entropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" t="inlineStr">
+        <is>
+          <t>Sensitive Feature_Age</t>
+        </is>
+      </c>
+      <c r="B97" t="n">
+        <v>-110861889186.7333</v>
+      </c>
+      <c r="C97" t="n">
+        <v>0.5096286179744334</v>
+      </c>
+      <c r="D97" t="inlineStr"/>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>Generalized Cross Entropy</t>
+        </is>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" t="inlineStr">
+        <is>
+          <t>Sensitive Feature_Age</t>
+        </is>
+      </c>
+      <c r="B98" t="n">
+        <v>294068422868.8671</v>
+      </c>
+      <c r="C98" t="n">
+        <v>0.09761182058703557</v>
+      </c>
+      <c r="D98" t="inlineStr"/>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" t="inlineStr">
+        <is>
+          <t>Sensitive Feature_Gender</t>
+        </is>
+      </c>
+      <c r="B99" t="n">
+        <v>294068422868.8642</v>
+      </c>
+      <c r="C99" t="n">
+        <v>0.09761182058703903</v>
+      </c>
+      <c r="D99" t="inlineStr"/>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" t="inlineStr">
+        <is>
+          <t>Density</t>
+        </is>
+      </c>
+      <c r="B100" t="n">
+        <v>0.07954306061924464</v>
+      </c>
+      <c r="C100" t="n">
+        <v>0.001098841698301942</v>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" t="inlineStr">
+        <is>
+          <t>Average Long Tail Items</t>
+        </is>
+      </c>
+      <c r="B101" t="n">
+        <v>0.04286153765417615</v>
+      </c>
+      <c r="C101" t="n">
+        <v>0.04235156653475983</v>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" t="inlineStr">
+        <is>
+          <t>Difference between Sensitive Attribute Percentage</t>
+        </is>
+      </c>
+      <c r="B102" t="n">
+        <v>0.04010548682775571</v>
+      </c>
+      <c r="C102" t="n">
+        <v>0.1123891839674568</v>
+      </c>
+      <c r="D102" t="inlineStr"/>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" t="inlineStr">
+        <is>
+          <t>hit@5</t>
+        </is>
+      </c>
+      <c r="B103" t="n">
+        <v>0.03470999535486131</v>
+      </c>
+      <c r="C103" t="n">
+        <v>6.048809099827658e-06</v>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" t="inlineStr">
+        <is>
           <t>Number of Ratings</t>
         </is>
       </c>
-      <c r="B89" t="n">
-        <v>-1.42380052387789</v>
-      </c>
-      <c r="C89" t="n">
-        <v>6.560351347648212e-06</v>
-      </c>
-      <c r="D89" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
-      <c r="E89" t="inlineStr">
-        <is>
-          <t>Differential Fairness of sensitive attribute</t>
+      <c r="B104" t="n">
+        <v>0.03282038623613764</v>
+      </c>
+      <c r="C104" t="n">
+        <v>0.2828403628958897</v>
+      </c>
+      <c r="D104" t="inlineStr"/>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" t="inlineStr">
+        <is>
+          <t>Number of Items</t>
+        </is>
+      </c>
+      <c r="B105" t="n">
+        <v>0.02615121056494386</v>
+      </c>
+      <c r="C105" t="n">
+        <v>0.2720383376199356</v>
+      </c>
+      <c r="D105" t="inlineStr"/>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" t="inlineStr">
+        <is>
+          <t>Skewness of Long Tail Items</t>
+        </is>
+      </c>
+      <c r="B106" t="n">
+        <v>0.01587915453048714</v>
+      </c>
+      <c r="C106" t="n">
+        <v>0.2057757595155374</v>
+      </c>
+      <c r="D106" t="inlineStr"/>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" t="inlineStr">
+        <is>
+          <t>Standart Deviation of Rating</t>
+        </is>
+      </c>
+      <c r="B107" t="n">
+        <v>-0.0008063890029250988</v>
+      </c>
+      <c r="C107" t="n">
+        <v>0.9814194224561671</v>
+      </c>
+      <c r="D107" t="inlineStr"/>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" t="inlineStr">
+        <is>
+          <t>Skewness of Popularity Bias</t>
+        </is>
+      </c>
+      <c r="B108" t="n">
+        <v>-0.002608467611551119</v>
+      </c>
+      <c r="C108" t="n">
+        <v>0.8306889584227469</v>
+      </c>
+      <c r="D108" t="inlineStr"/>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" t="inlineStr">
+        <is>
+          <t>Number of Users</t>
+        </is>
+      </c>
+      <c r="B109" t="n">
+        <v>-0.004184116984523522</v>
+      </c>
+      <c r="C109" t="n">
+        <v>0.8351732826769904</v>
+      </c>
+      <c r="D109" t="inlineStr"/>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" t="inlineStr">
+        <is>
+          <t>Shape</t>
+        </is>
+      </c>
+      <c r="B110" t="n">
+        <v>-0.02122286020119827</v>
+      </c>
+      <c r="C110" t="n">
+        <v>0.3438080066599235</v>
+      </c>
+      <c r="D110" t="inlineStr"/>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" t="inlineStr">
+        <is>
+          <t>Gini User</t>
+        </is>
+      </c>
+      <c r="B111" t="n">
+        <v>-0.02537825339698782</v>
+      </c>
+      <c r="C111" t="n">
+        <v>0.1415789040889452</v>
+      </c>
+      <c r="D111" t="inlineStr"/>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" t="inlineStr">
+        <is>
+          <t>Rating per User</t>
+        </is>
+      </c>
+      <c r="B112" t="n">
+        <v>-0.03101759945075054</v>
+      </c>
+      <c r="C112" t="n">
+        <v>0.007458541668815973</v>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" t="inlineStr">
+        <is>
+          <t>Rating per Item</t>
+        </is>
+      </c>
+      <c r="B113" t="n">
+        <v>-0.04275810995324411</v>
+      </c>
+      <c r="C113" t="n">
+        <v>0.07177883278666367</v>
+      </c>
+      <c r="D113" t="inlineStr"/>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" t="inlineStr">
+        <is>
+          <t>Gini Item</t>
+        </is>
+      </c>
+      <c r="B114" t="n">
+        <v>-0.08699557263703303</v>
+      </c>
+      <c r="C114" t="n">
+        <v>0.001671658850771728</v>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" t="inlineStr">
+        <is>
+          <t>Mean Rating</t>
+        </is>
+      </c>
+      <c r="B115" t="n">
+        <v>-0.09108446746674176</v>
+      </c>
+      <c r="C115" t="n">
+        <v>0.1605579854212997</v>
+      </c>
+      <c r="D115" t="inlineStr"/>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" t="inlineStr">
+        <is>
+          <t>Model Name_FOCF</t>
+        </is>
+      </c>
+      <c r="B116" t="n">
+        <v>-60814503859.97287</v>
+      </c>
+      <c r="C116" t="n">
+        <v>0.09761182058719974</v>
+      </c>
+      <c r="D116" t="inlineStr"/>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" t="inlineStr">
+        <is>
+          <t>Model Name_NFCF</t>
+        </is>
+      </c>
+      <c r="B117" t="n">
+        <v>-60814503859.97784</v>
+      </c>
+      <c r="C117" t="n">
+        <v>0.09761182058717062</v>
+      </c>
+      <c r="D117" t="inlineStr"/>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" t="inlineStr">
+        <is>
+          <t>Model Name_PFCN_MLP</t>
+        </is>
+      </c>
+      <c r="B118" t="n">
+        <v>-60814503860.00658</v>
+      </c>
+      <c r="C118" t="n">
+        <v>0.09761182058701287</v>
+      </c>
+      <c r="D118" t="inlineStr"/>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" t="inlineStr">
+        <is>
+          <t>Dataset_ml1m</t>
+        </is>
+      </c>
+      <c r="B119" t="n">
+        <v>-90421392746.97</v>
+      </c>
+      <c r="C119" t="n">
+        <v>0.09761182058732448</v>
+      </c>
+      <c r="D119" t="inlineStr"/>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" t="inlineStr">
+        <is>
+          <t>Dataset_BX</t>
+        </is>
+      </c>
+      <c r="B120" t="n">
+        <v>-90421392747.0737</v>
+      </c>
+      <c r="C120" t="n">
+        <v>0.0976118205869322</v>
+      </c>
+      <c r="D120" t="inlineStr"/>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
+        </is>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" t="inlineStr">
+        <is>
+          <t>const</t>
+        </is>
+      </c>
+      <c r="B121" t="n">
+        <v>-142832526261.7739</v>
+      </c>
+      <c r="C121" t="n">
+        <v>0.09761182058714674</v>
+      </c>
+      <c r="D121" t="inlineStr"/>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
     </row>

--- a/evaluation/OLS_Regression_Feature_Analysis_fairness_measure_based.xlsx
+++ b/evaluation/OLS_Regression_Feature_Analysis_fairness_measure_based.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E121"/>
+  <dimension ref="A1:E116"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,10 +467,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>127196675657.1627</v>
+        <v>102698210491.1156</v>
       </c>
       <c r="C2" t="n">
-        <v>0.3860885303910564</v>
+        <v>0.3951294497719184</v>
       </c>
       <c r="D2" t="inlineStr"/>
       <c r="E2" t="inlineStr">
@@ -486,10 +486,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>127196675657.1198</v>
+        <v>102698210491.0729</v>
       </c>
       <c r="C3" t="n">
-        <v>0.3860885303912168</v>
+        <v>0.3951294497721151</v>
       </c>
       <c r="D3" t="inlineStr"/>
       <c r="E3" t="inlineStr">
@@ -505,10 +505,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.1584466679378452</v>
+        <v>0.1595061909769637</v>
       </c>
       <c r="C4" t="n">
-        <v>0.003225918675712088</v>
+        <v>0.00302622650439204</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
@@ -528,10 +528,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>0.1278970590807847</v>
+        <v>0.1438957297795987</v>
       </c>
       <c r="C5" t="n">
-        <v>1.358750937278038e-10</v>
+        <v>1.643182188182107e-23</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
@@ -551,10 +551,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.06239364566684574</v>
+        <v>0.06639223282065441</v>
       </c>
       <c r="C6" t="n">
-        <v>0.0001867888350857932</v>
+        <v>4.936014710540167e-05</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
@@ -570,18 +570,18 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.03286039572573429</v>
+        <v>0.0328531479636862</v>
       </c>
       <c r="C7" t="n">
-        <v>0.02150707099135269</v>
+        <v>0.0005169802572104968</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
@@ -593,18 +593,18 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B8" t="n">
-        <v>0.03091721455887685</v>
+        <v>0.02957200743720428</v>
       </c>
       <c r="C8" t="n">
-        <v>0.001276107560843811</v>
+        <v>0.03474988037683379</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
@@ -616,14 +616,14 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.02046687682415484</v>
+        <v>0.02441748536790913</v>
       </c>
       <c r="C9" t="n">
-        <v>0.3271425958715881</v>
+        <v>0.1545265360032246</v>
       </c>
       <c r="D9" t="inlineStr"/>
       <c r="E9" t="inlineStr">
@@ -635,14 +635,14 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0.01605190007677026</v>
+        <v>0.02032981841270298</v>
       </c>
       <c r="C10" t="n">
-        <v>0.4820533786187839</v>
+        <v>0.330498651642595</v>
       </c>
       <c r="D10" t="inlineStr"/>
       <c r="E10" t="inlineStr">
@@ -654,14 +654,14 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0.01400423692656907</v>
+        <v>0.009364009928853181</v>
       </c>
       <c r="C11" t="n">
-        <v>0.4500871787512734</v>
+        <v>0.3247475645771581</v>
       </c>
       <c r="D11" t="inlineStr"/>
       <c r="E11" t="inlineStr">
@@ -673,14 +673,14 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B12" t="n">
-        <v>0.013316026415644</v>
+        <v>0.009096421778724412</v>
       </c>
       <c r="C12" t="n">
-        <v>0.49749800205985</v>
+        <v>0.3515714970912474</v>
       </c>
       <c r="D12" t="inlineStr"/>
       <c r="E12" t="inlineStr">
@@ -692,14 +692,14 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0.01197477918450193</v>
+        <v>0.006026537854608091</v>
       </c>
       <c r="C13" t="n">
-        <v>0.2355338280571591</v>
+        <v>0.7751437378848389</v>
       </c>
       <c r="D13" t="inlineStr"/>
       <c r="E13" t="inlineStr">
@@ -711,14 +711,14 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0.004522620520149609</v>
+        <v>0.002502629430201429</v>
       </c>
       <c r="C14" t="n">
-        <v>0.6629522921185196</v>
+        <v>0.8729977999491338</v>
       </c>
       <c r="D14" t="inlineStr"/>
       <c r="E14" t="inlineStr">
@@ -730,16 +730,20 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B15" t="n">
-        <v>-0.02020245507728655</v>
+        <v>-0.02317140456976889</v>
       </c>
       <c r="C15" t="n">
-        <v>0.246987258185049</v>
-      </c>
-      <c r="D15" t="inlineStr"/>
+        <v>0.0002527150370062306</v>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E15" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -749,20 +753,16 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B16" t="n">
-        <v>-0.02351314049408591</v>
+        <v>-0.03529721057519514</v>
       </c>
       <c r="C16" t="n">
-        <v>0.0002051180439762931</v>
-      </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.07902447548726599</v>
+      </c>
+      <c r="D16" t="inlineStr"/>
       <c r="E16" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -772,14 +772,14 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B17" t="n">
-        <v>-0.03433264308707863</v>
+        <v>-0.05459011929680031</v>
       </c>
       <c r="C17" t="n">
-        <v>0.08783921558172038</v>
+        <v>0.05529109826124774</v>
       </c>
       <c r="D17" t="inlineStr"/>
       <c r="E17" t="inlineStr">
@@ -791,16 +791,20 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B18" t="n">
-        <v>-0.05082620357188317</v>
+        <v>-0.2033245274686142</v>
       </c>
       <c r="C18" t="n">
-        <v>0.076220055009684</v>
-      </c>
-      <c r="D18" t="inlineStr"/>
+        <v>1.173176433416854e-16</v>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E18" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -810,20 +814,16 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B19" t="n">
-        <v>-0.1942948951402504</v>
+        <v>-20741315368.9111</v>
       </c>
       <c r="C19" t="n">
-        <v>3.910174726341895e-14</v>
-      </c>
-      <c r="D19" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3951294497735898</v>
+      </c>
+      <c r="D19" t="inlineStr"/>
       <c r="E19" t="inlineStr">
         <is>
           <t>Value Unfairness</t>
@@ -833,14 +833,14 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B20" t="n">
-        <v>-26304771682.87946</v>
+        <v>-20741315368.93851</v>
       </c>
       <c r="C20" t="n">
-        <v>0.3860885303924064</v>
+        <v>0.395129449772966</v>
       </c>
       <c r="D20" t="inlineStr"/>
       <c r="E20" t="inlineStr">
@@ -852,14 +852,14 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B21" t="n">
-        <v>-26304771682.90724</v>
+        <v>-20741315368.95157</v>
       </c>
       <c r="C21" t="n">
-        <v>0.3860885303919054</v>
+        <v>0.3951294497726705</v>
       </c>
       <c r="D21" t="inlineStr"/>
       <c r="E21" t="inlineStr">
@@ -871,14 +871,14 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B22" t="n">
-        <v>-26304771682.91965</v>
+        <v>-30931848555.49377</v>
       </c>
       <c r="C22" t="n">
-        <v>0.3860885303916837</v>
+        <v>0.3951294497740404</v>
       </c>
       <c r="D22" t="inlineStr"/>
       <c r="E22" t="inlineStr">
@@ -890,14 +890,14 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B23" t="n">
-        <v>-39110967622.66479</v>
+        <v>-30931848555.62001</v>
       </c>
       <c r="C23" t="n">
-        <v>0.3860885303928127</v>
+        <v>0.3951294497721284</v>
       </c>
       <c r="D23" t="inlineStr"/>
       <c r="E23" t="inlineStr">
@@ -909,14 +909,14 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B24" t="n">
-        <v>-39110967622.79883</v>
+        <v>-51025046566.35547</v>
       </c>
       <c r="C24" t="n">
-        <v>0.3860885303911976</v>
+        <v>0.3951294497732551</v>
       </c>
       <c r="D24" t="inlineStr"/>
       <c r="E24" t="inlineStr">
@@ -932,29 +932,29 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>-61780936351.25394</v>
+        <v>75379946751.35321</v>
       </c>
       <c r="C25" t="n">
-        <v>0.3860885303921789</v>
+        <v>0.3351716237564629</v>
       </c>
       <c r="D25" t="inlineStr"/>
       <c r="E25" t="inlineStr">
         <is>
-          <t>Value Unfairness</t>
+          <t>Overrestimation Unfairness</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B26" t="n">
-        <v>84706664631.60715</v>
+        <v>45696011154.2886</v>
       </c>
       <c r="C26" t="n">
-        <v>0.3584065328749129</v>
+        <v>0.3351716237551459</v>
       </c>
       <c r="D26" t="inlineStr"/>
       <c r="E26" t="inlineStr">
@@ -966,14 +966,14 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B27" t="n">
-        <v>53624302471.0119</v>
+        <v>45696011154.05704</v>
       </c>
       <c r="C27" t="n">
-        <v>0.3584065328739208</v>
+        <v>0.3351716237576106</v>
       </c>
       <c r="D27" t="inlineStr"/>
       <c r="E27" t="inlineStr">
@@ -985,14 +985,14 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B28" t="n">
-        <v>53624302470.81418</v>
+        <v>30641407569.01118</v>
       </c>
       <c r="C28" t="n">
-        <v>0.3584065328757046</v>
+        <v>0.3351716237549737</v>
       </c>
       <c r="D28" t="inlineStr"/>
       <c r="E28" t="inlineStr">
@@ -1004,14 +1004,14 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B29" t="n">
-        <v>36065971232.47549</v>
+        <v>30641407568.94719</v>
       </c>
       <c r="C29" t="n">
-        <v>0.3584065328736217</v>
+        <v>0.3351716237559826</v>
       </c>
       <c r="D29" t="inlineStr"/>
       <c r="E29" t="inlineStr">
@@ -1023,14 +1023,14 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B30" t="n">
-        <v>36065971232.41137</v>
+        <v>30641407568.80829</v>
       </c>
       <c r="C30" t="n">
-        <v>0.3584065328744761</v>
+        <v>0.3351716237581744</v>
       </c>
       <c r="D30" t="inlineStr"/>
       <c r="E30" t="inlineStr">
@@ -1042,16 +1042,20 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B31" t="n">
-        <v>36065971232.27232</v>
+        <v>0.3566229284915785</v>
       </c>
       <c r="C31" t="n">
-        <v>0.3584065328763304</v>
-      </c>
-      <c r="D31" t="inlineStr"/>
+        <v>4.154539329505786e-07</v>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E31" t="inlineStr">
         <is>
           <t>Overrestimation Unfairness</t>
@@ -1061,14 +1065,14 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B32" t="n">
-        <v>0.3611787595997898</v>
+        <v>0.1543708092456756</v>
       </c>
       <c r="C32" t="n">
-        <v>2.439113517521793e-07</v>
+        <v>2.067497726502384e-33</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
@@ -1088,10 +1092,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>0.1653105846406115</v>
+        <v>0.148978005590138</v>
       </c>
       <c r="C33" t="n">
-        <v>4.137688814181539e-14</v>
+        <v>4.372353929589953e-12</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
@@ -1107,14 +1111,14 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B34" t="n">
-        <v>0.1622374904347077</v>
+        <v>0.1210362599382468</v>
       </c>
       <c r="C34" t="n">
-        <v>5.613185253902093e-36</v>
+        <v>5.483852802460551e-11</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
@@ -1134,10 +1138,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>0.144734667001142</v>
+        <v>0.07794386401236721</v>
       </c>
       <c r="C35" t="n">
-        <v>1.795215452689901e-08</v>
+        <v>2.12408353921869e-05</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
@@ -1153,20 +1157,16 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B36" t="n">
-        <v>0.1073623721816882</v>
+        <v>0.04598340662077555</v>
       </c>
       <c r="C36" t="n">
-        <v>8.458890267705426e-09</v>
-      </c>
-      <c r="D36" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.0947371592810982</v>
+      </c>
+      <c r="D36" t="inlineStr"/>
       <c r="E36" t="inlineStr">
         <is>
           <t>Overrestimation Unfairness</t>
@@ -1176,14 +1176,14 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B37" t="n">
-        <v>0.08424830898273733</v>
+        <v>0.03483916334042636</v>
       </c>
       <c r="C37" t="n">
-        <v>0.0002008344987773918</v>
+        <v>2.485530110539469e-05</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
@@ -1199,20 +1199,16 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B38" t="n">
-        <v>0.06282608963661859</v>
+        <v>0.01706642642713729</v>
       </c>
       <c r="C38" t="n">
-        <v>0.01351670133368306</v>
-      </c>
-      <c r="D38" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.5143832342066351</v>
+      </c>
+      <c r="D38" t="inlineStr"/>
       <c r="E38" t="inlineStr">
         <is>
           <t>Overrestimation Unfairness</t>
@@ -1222,20 +1218,16 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B39" t="n">
-        <v>0.03599278758833539</v>
+        <v>0.01669495574443184</v>
       </c>
       <c r="C39" t="n">
-        <v>1.157758236526703e-05</v>
-      </c>
-      <c r="D39" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.4549710679346063</v>
+      </c>
+      <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr">
         <is>
           <t>Overrestimation Unfairness</t>
@@ -1245,14 +1237,14 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0.01274090584785793</v>
+        <v>0.01211186835689744</v>
       </c>
       <c r="C40" t="n">
-        <v>0.6241856189745869</v>
+        <v>0.3412956006114056</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr">
@@ -1264,14 +1256,14 @@
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B41" t="n">
-        <v>0.003988850742294936</v>
+        <v>-0.01833247103554086</v>
       </c>
       <c r="C41" t="n">
-        <v>0.8925868562250086</v>
+        <v>0.1392454631375796</v>
       </c>
       <c r="D41" t="inlineStr"/>
       <c r="E41" t="inlineStr">
@@ -1283,14 +1275,14 @@
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B42" t="n">
-        <v>0.001826795515513589</v>
+        <v>-0.02331394357689807</v>
       </c>
       <c r="C42" t="n">
-        <v>0.8917698779097741</v>
+        <v>0.3918722328884459</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr">
@@ -1302,14 +1294,14 @@
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B43" t="n">
-        <v>-0.0001826032283298376</v>
+        <v>-0.02374716924613215</v>
       </c>
       <c r="C43" t="n">
-        <v>0.9888415165931638</v>
+        <v>0.5220130676827623</v>
       </c>
       <c r="D43" t="inlineStr"/>
       <c r="E43" t="inlineStr">
@@ -1321,16 +1313,20 @@
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B44" t="n">
-        <v>-0.02392638819539071</v>
+        <v>-0.07085697827066822</v>
       </c>
       <c r="C44" t="n">
-        <v>0.3759618951212313</v>
-      </c>
-      <c r="D44" t="inlineStr"/>
+        <v>0.0005390704816672743</v>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E44" t="inlineStr">
         <is>
           <t>Overrestimation Unfairness</t>
@@ -1340,16 +1336,20 @@
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B45" t="n">
-        <v>-0.03959297331765606</v>
+        <v>-0.1658755883865336</v>
       </c>
       <c r="C45" t="n">
-        <v>0.285491610878516</v>
-      </c>
-      <c r="D45" t="inlineStr"/>
+        <v>1.540294688654439e-07</v>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E45" t="inlineStr">
         <is>
           <t>Overrestimation Unfairness</t>
@@ -1359,20 +1359,16 @@
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B46" t="n">
-        <v>-0.118775232011679</v>
+        <v>-151717365474.6187</v>
       </c>
       <c r="C46" t="n">
-        <v>8.767072387047657e-07</v>
-      </c>
-      <c r="D46" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3351716237558678</v>
+      </c>
+      <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr">
         <is>
           <t>Overrestimation Unfairness</t>
@@ -1382,20 +1378,16 @@
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B47" t="n">
-        <v>-0.2031258716578202</v>
+        <v>-151717365474.6238</v>
       </c>
       <c r="C47" t="n">
-        <v>7.95896344323311e-10</v>
-      </c>
-      <c r="D47" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.3351716237558523</v>
+      </c>
+      <c r="D47" t="inlineStr"/>
       <c r="E47" t="inlineStr">
         <is>
           <t>Overrestimation Unfairness</t>
@@ -1405,52 +1397,52 @@
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B48" t="n">
-        <v>-174396938335.0989</v>
+        <v>1277276762387.394</v>
       </c>
       <c r="C48" t="n">
-        <v>0.3584065328743249</v>
+        <v>0.1472480370121947</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr">
         <is>
-          <t>Overrestimation Unfairness</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B49" t="n">
-        <v>-174396938335.1037</v>
+        <v>774296821588.1216</v>
       </c>
       <c r="C49" t="n">
-        <v>0.358406532874312</v>
+        <v>0.1472480370118778</v>
       </c>
       <c r="D49" t="inlineStr"/>
       <c r="E49" t="inlineStr">
         <is>
-          <t>Overrestimation Unfairness</t>
+          <t>Differential Fairness</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B50" t="n">
-        <v>1457284342219.585</v>
+        <v>774296821586.8955</v>
       </c>
       <c r="C50" t="n">
-        <v>0.1605628670029695</v>
+        <v>0.1472480370125315</v>
       </c>
       <c r="D50" t="inlineStr"/>
       <c r="E50" t="inlineStr">
@@ -1462,14 +1454,14 @@
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B51" t="n">
-        <v>922546728680.5264</v>
+        <v>519203840561.9497</v>
       </c>
       <c r="C51" t="n">
-        <v>0.1605628670027753</v>
+        <v>0.1472480370117882</v>
       </c>
       <c r="D51" t="inlineStr"/>
       <c r="E51" t="inlineStr">
@@ -1481,14 +1473,14 @@
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B52" t="n">
-        <v>922546728679.6775</v>
+        <v>519203840561.6669</v>
       </c>
       <c r="C52" t="n">
-        <v>0.1605628670031703</v>
+        <v>0.1472480370120088</v>
       </c>
       <c r="D52" t="inlineStr"/>
       <c r="E52" t="inlineStr">
@@ -1500,14 +1492,14 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>620475087674.7527</v>
+        <v>519203840560.6307</v>
       </c>
       <c r="C53" t="n">
-        <v>0.1605628670026112</v>
+        <v>0.1472480370128169</v>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
@@ -1519,16 +1511,20 @@
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B54" t="n">
-        <v>620475087674.472</v>
+        <v>1.823896635317745</v>
       </c>
       <c r="C54" t="n">
-        <v>0.1605628670028006</v>
-      </c>
-      <c r="D54" t="inlineStr"/>
+        <v>3.688342043179228e-18</v>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E54" t="inlineStr">
         <is>
           <t>Differential Fairness</t>
@@ -1538,16 +1534,20 @@
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B55" t="n">
-        <v>620475087673.4316</v>
+        <v>1.662072872179356</v>
       </c>
       <c r="C55" t="n">
-        <v>0.160562867003503</v>
-      </c>
-      <c r="D55" t="inlineStr"/>
+        <v>0.0351117861632819</v>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E55" t="inlineStr">
         <is>
           <t>Differential Fairness</t>
@@ -1557,14 +1557,14 @@
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B56" t="n">
-        <v>2.566116564496797</v>
+        <v>0.8308587974196802</v>
       </c>
       <c r="C56" t="n">
-        <v>2.045530443794688e-18</v>
+        <v>1.690343428462992e-18</v>
       </c>
       <c r="D56" t="inlineStr">
         <is>
@@ -1580,18 +1580,18 @@
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B57" t="n">
-        <v>1.712427752465564</v>
+        <v>0.7927751386150416</v>
       </c>
       <c r="C57" t="n">
-        <v>0.02867372867253161</v>
+        <v>0.0009456078341439338</v>
       </c>
       <c r="D57" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E57" t="inlineStr">
@@ -1603,20 +1603,16 @@
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B58" t="n">
-        <v>0.974812184469654</v>
+        <v>0.6970054173943061</v>
       </c>
       <c r="C58" t="n">
-        <v>6.191010673640015e-05</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.09546977126714658</v>
+      </c>
+      <c r="D58" t="inlineStr"/>
       <c r="E58" t="inlineStr">
         <is>
           <t>Differential Fairness</t>
@@ -1626,18 +1622,18 @@
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B59" t="n">
-        <v>0.9367916080167804</v>
+        <v>0.6575304386237382</v>
       </c>
       <c r="C59" t="n">
-        <v>0.000239728653941443</v>
+        <v>0.03222936586869456</v>
       </c>
       <c r="D59" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E59" t="inlineStr">
@@ -1649,18 +1645,18 @@
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B60" t="n">
-        <v>0.8445747145521173</v>
+        <v>0.6550523160257464</v>
       </c>
       <c r="C60" t="n">
-        <v>2.666244120931638e-19</v>
+        <v>0.001471076580770322</v>
       </c>
       <c r="D60" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>**</t>
         </is>
       </c>
       <c r="E60" t="inlineStr">
@@ -1672,18 +1668,18 @@
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B61" t="n">
-        <v>0.7100759568841553</v>
+        <v>0.6378443289572479</v>
       </c>
       <c r="C61" t="n">
-        <v>4.246878303591075e-07</v>
+        <v>0.03969828219816744</v>
       </c>
       <c r="D61" t="inlineStr">
         <is>
-          <t>***</t>
+          <t>*</t>
         </is>
       </c>
       <c r="E61" t="inlineStr">
@@ -1695,18 +1691,18 @@
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B62" t="n">
-        <v>0.6512757884967284</v>
+        <v>0.6221376183833986</v>
       </c>
       <c r="C62" t="n">
-        <v>0.03246741722368347</v>
+        <v>7.893163950374487e-06</v>
       </c>
       <c r="D62" t="inlineStr">
         <is>
-          <t>*</t>
+          <t>***</t>
         </is>
       </c>
       <c r="E62" t="inlineStr">
@@ -1718,14 +1714,14 @@
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B63" t="n">
-        <v>0.5215925312495024</v>
+        <v>0.2400614597539984</v>
       </c>
       <c r="C63" t="n">
-        <v>0.2113626178371634</v>
+        <v>0.4155288558890951</v>
       </c>
       <c r="D63" t="inlineStr"/>
       <c r="E63" t="inlineStr">
@@ -1737,20 +1733,16 @@
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B64" t="n">
-        <v>0.5030438510978961</v>
+        <v>0.06032296396419645</v>
       </c>
       <c r="C64" t="n">
-        <v>0.01569468828495202</v>
-      </c>
-      <c r="D64" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.6656015941502839</v>
+      </c>
+      <c r="D64" t="inlineStr"/>
       <c r="E64" t="inlineStr">
         <is>
           <t>Differential Fairness</t>
@@ -1760,14 +1752,14 @@
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B65" t="n">
-        <v>0.2847021176188256</v>
+        <v>0.03330626971659179</v>
       </c>
       <c r="C65" t="n">
-        <v>0.05984562770225168</v>
+        <v>0.8162447831861739</v>
       </c>
       <c r="D65" t="inlineStr"/>
       <c r="E65" t="inlineStr">
@@ -1779,14 +1771,14 @@
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B66" t="n">
-        <v>0.1929648251839821</v>
+        <v>-0.3520067801944605</v>
       </c>
       <c r="C66" t="n">
-        <v>0.5098068501062615</v>
+        <v>0.1621016762528916</v>
       </c>
       <c r="D66" t="inlineStr"/>
       <c r="E66" t="inlineStr">
@@ -1798,16 +1790,20 @@
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B67" t="n">
-        <v>0.1720163554333411</v>
+        <v>-0.9481683529729837</v>
       </c>
       <c r="C67" t="n">
-        <v>0.6049668987367403</v>
-      </c>
-      <c r="D67" t="inlineStr"/>
+        <v>4.035395051810585e-05</v>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E67" t="inlineStr">
         <is>
           <t>Differential Fairness</t>
@@ -1817,16 +1813,20 @@
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B68" t="n">
-        <v>0.1610466017446854</v>
+        <v>-1.707512825895594</v>
       </c>
       <c r="C68" t="n">
-        <v>0.5731862527777896</v>
-      </c>
-      <c r="D68" t="inlineStr"/>
+        <v>1.571073621565832e-06</v>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E68" t="inlineStr">
         <is>
           <t>Differential Fairness</t>
@@ -1836,14 +1836,14 @@
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B69" t="n">
-        <v>-0.1031903743323588</v>
+        <v>-2570777424535.862</v>
       </c>
       <c r="C69" t="n">
-        <v>0.4826755684422687</v>
+        <v>0.1472480370122637</v>
       </c>
       <c r="D69" t="inlineStr"/>
       <c r="E69" t="inlineStr">
@@ -1855,20 +1855,16 @@
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B70" t="n">
-        <v>-1.480874146599272</v>
+        <v>-2570777424535.991</v>
       </c>
       <c r="C70" t="n">
-        <v>5.382004675380543e-08</v>
-      </c>
-      <c r="D70" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1472480370122436</v>
+      </c>
+      <c r="D70" t="inlineStr"/>
       <c r="E70" t="inlineStr">
         <is>
           <t>Differential Fairness</t>
@@ -1878,75 +1874,71 @@
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B71" t="n">
-        <v>-2.122262854714372</v>
+        <v>44614906087.66083</v>
       </c>
       <c r="C71" t="n">
-        <v>1.112199029564394e-08</v>
-      </c>
-      <c r="D71" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5170204219611854</v>
+      </c>
+      <c r="D71" t="inlineStr"/>
       <c r="E71" t="inlineStr">
         <is>
-          <t>Differential Fairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B72" t="n">
-        <v>-3000306158573.705</v>
+        <v>27045962939.70552</v>
       </c>
       <c r="C72" t="n">
-        <v>0.1605628670029937</v>
+        <v>0.5170204219590593</v>
       </c>
       <c r="D72" t="inlineStr"/>
       <c r="E72" t="inlineStr">
         <is>
-          <t>Differential Fairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B73" t="n">
-        <v>-3000306158573.819</v>
+        <v>27045962939.43118</v>
       </c>
       <c r="C73" t="n">
-        <v>0.1605628670029779</v>
+        <v>0.5170204219633237</v>
       </c>
       <c r="D73" t="inlineStr"/>
       <c r="E73" t="inlineStr">
         <is>
-          <t>Differential Fairness</t>
+          <t>Generalized Cross Entropy</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>const</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B74" t="n">
-        <v>53846936519.80331</v>
+        <v>18135639251.51714</v>
       </c>
       <c r="C74" t="n">
-        <v>0.5096286179744508</v>
+        <v>0.517020421961138</v>
       </c>
       <c r="D74" t="inlineStr"/>
       <c r="E74" t="inlineStr">
@@ -1958,14 +1950,14 @@
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>Dataset_BX</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B75" t="n">
-        <v>34088278928.6789</v>
+        <v>18135639251.51597</v>
       </c>
       <c r="C75" t="n">
-        <v>0.5096286179728475</v>
+        <v>0.5170204219611648</v>
       </c>
       <c r="D75" t="inlineStr"/>
       <c r="E75" t="inlineStr">
@@ -1977,14 +1969,14 @@
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>Dataset_ml1m</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B76" t="n">
-        <v>34088278928.42167</v>
+        <v>18135639251.51142</v>
       </c>
       <c r="C76" t="n">
-        <v>0.5096286179760522</v>
+        <v>0.517020421961272</v>
       </c>
       <c r="D76" t="inlineStr"/>
       <c r="E76" t="inlineStr">
@@ -1996,16 +1988,20 @@
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>Model Name_PFCN_MLP</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B77" t="n">
-        <v>22926673738.37901</v>
+        <v>0.250200126264003</v>
       </c>
       <c r="C77" t="n">
-        <v>0.5096286179744065</v>
-      </c>
-      <c r="D77" t="inlineStr"/>
+        <v>5.254208400387762e-05</v>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E77" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -2015,16 +2011,20 @@
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>Model Name_NFCF</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B78" t="n">
-        <v>22926673738.37782</v>
+        <v>0.08754466746202005</v>
       </c>
       <c r="C78" t="n">
-        <v>0.5096286179744279</v>
-      </c>
-      <c r="D78" t="inlineStr"/>
+        <v>0.001570312817251052</v>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E78" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -2034,14 +2034,14 @@
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B79" t="n">
-        <v>22926673738.37313</v>
+        <v>0.0471443433343321</v>
       </c>
       <c r="C79" t="n">
-        <v>0.5096286179745166</v>
+        <v>0.05175901132962343</v>
       </c>
       <c r="D79" t="inlineStr"/>
       <c r="E79" t="inlineStr">
@@ -2053,20 +2053,16 @@
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B80" t="n">
-        <v>0.2524861040873784</v>
+        <v>0.01794792370698626</v>
       </c>
       <c r="C80" t="n">
-        <v>4.366264937854413e-05</v>
-      </c>
-      <c r="D80" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1094156355821101</v>
+      </c>
+      <c r="D80" t="inlineStr"/>
       <c r="E80" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -2076,20 +2072,16 @@
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B81" t="n">
-        <v>0.06863987480647354</v>
+        <v>0.002556938900123715</v>
       </c>
       <c r="C81" t="n">
-        <v>0.01793028941209717</v>
-      </c>
-      <c r="D81" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.8868319996732572</v>
+      </c>
+      <c r="D81" t="inlineStr"/>
       <c r="E81" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -2099,20 +2091,16 @@
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B82" t="n">
-        <v>0.04258484052988883</v>
+        <v>-0.004382437310932673</v>
       </c>
       <c r="C82" t="n">
-        <v>0.03333337613923343</v>
-      </c>
-      <c r="D82" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.5449528104382346</v>
+      </c>
+      <c r="D82" t="inlineStr"/>
       <c r="E82" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -2122,14 +2110,14 @@
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B83" t="n">
-        <v>0.02588595400774488</v>
+        <v>-0.01091766037303271</v>
       </c>
       <c r="C83" t="n">
-        <v>0.3224759742525082</v>
+        <v>0.3170934622627286</v>
       </c>
       <c r="D83" t="inlineStr"/>
       <c r="E83" t="inlineStr">
@@ -2141,14 +2129,14 @@
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B84" t="n">
-        <v>0.01180203661851828</v>
+        <v>-0.01597581784219029</v>
       </c>
       <c r="C84" t="n">
-        <v>0.3074723056794118</v>
+        <v>0.3198087557738531</v>
       </c>
       <c r="D84" t="inlineStr"/>
       <c r="E84" t="inlineStr">
@@ -2160,14 +2148,14 @@
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B85" t="n">
-        <v>-0.0007357277745956362</v>
+        <v>-0.02587744321369403</v>
       </c>
       <c r="C85" t="n">
-        <v>0.9506520074884623</v>
+        <v>0.2616031049479344</v>
       </c>
       <c r="D85" t="inlineStr"/>
       <c r="E85" t="inlineStr">
@@ -2179,16 +2167,20 @@
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B86" t="n">
-        <v>-0.003788026938107759</v>
+        <v>-0.04230247158110299</v>
       </c>
       <c r="C86" t="n">
-        <v>0.6002340488733409</v>
-      </c>
-      <c r="D86" t="inlineStr"/>
+        <v>0.03173641819717728</v>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E86" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -2198,16 +2190,20 @@
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B87" t="n">
-        <v>-0.01894472381988365</v>
+        <v>-0.05157000771168506</v>
       </c>
       <c r="C87" t="n">
-        <v>0.3995647711398654</v>
-      </c>
-      <c r="D87" t="inlineStr"/>
+        <v>0.005887034441322059</v>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E87" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -2217,16 +2213,20 @@
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B88" t="n">
-        <v>-0.02168641812153495</v>
+        <v>-0.05696940037691417</v>
       </c>
       <c r="C88" t="n">
-        <v>0.3073934391368306</v>
-      </c>
-      <c r="D88" t="inlineStr"/>
+        <v>1.7583991295098e-07</v>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E88" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -2236,16 +2236,20 @@
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B89" t="n">
-        <v>-0.02290179493409267</v>
+        <v>-0.06424997021431578</v>
       </c>
       <c r="C89" t="n">
-        <v>0.1615706364942665</v>
-      </c>
-      <c r="D89" t="inlineStr"/>
+        <v>6.811121477439411e-05</v>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E89" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -2255,16 +2259,20 @@
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B90" t="n">
-        <v>-0.0280519319785997</v>
+        <v>-0.0951632651057186</v>
       </c>
       <c r="C90" t="n">
-        <v>0.2233050682256698</v>
-      </c>
-      <c r="D90" t="inlineStr"/>
+        <v>0.003645035432281534</v>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E90" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -2274,16 +2282,20 @@
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B91" t="n">
-        <v>-0.03047600375161074</v>
+        <v>-0.3092575461653046</v>
       </c>
       <c r="C91" t="n">
-        <v>0.1768700700891662</v>
-      </c>
-      <c r="D91" t="inlineStr"/>
+        <v>5.023110381620716e-35</v>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E91" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -2293,20 +2305,16 @@
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B92" t="n">
-        <v>-0.04324752510699748</v>
+        <v>-89796508278.72891</v>
       </c>
       <c r="C92" t="n">
-        <v>0.02344577330135416</v>
-      </c>
-      <c r="D92" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.5170204219612513</v>
+      </c>
+      <c r="D92" t="inlineStr"/>
       <c r="E92" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -2316,20 +2324,16 @@
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B93" t="n">
-        <v>-0.05296844333103505</v>
+        <v>-89796508278.73657</v>
       </c>
       <c r="C93" t="n">
-        <v>1.589629558959922e-06</v>
-      </c>
-      <c r="D93" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.5170204219612151</v>
+      </c>
+      <c r="D93" t="inlineStr"/>
       <c r="E93" t="inlineStr">
         <is>
           <t>Generalized Cross Entropy</t>
@@ -2339,98 +2343,94 @@
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Sensitive Feature_Age</t>
         </is>
       </c>
       <c r="B94" t="n">
-        <v>-0.1031889659072419</v>
+        <v>239193497139.0345</v>
       </c>
       <c r="C94" t="n">
-        <v>0.001713028135708866</v>
-      </c>
-      <c r="D94" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.1019741472482919</v>
+      </c>
+      <c r="D94" t="inlineStr"/>
       <c r="E94" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Sensitive Feature_Gender</t>
         </is>
       </c>
       <c r="B95" t="n">
-        <v>-0.3095975044952454</v>
+        <v>239193497139.0316</v>
       </c>
       <c r="C95" t="n">
-        <v>3.317791375857856e-35</v>
-      </c>
-      <c r="D95" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.1019741472482961</v>
+      </c>
+      <c r="D95" t="inlineStr"/>
       <c r="E95" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>Density</t>
         </is>
       </c>
       <c r="B96" t="n">
-        <v>-110861889186.7261</v>
+        <v>0.08210066301593774</v>
       </c>
       <c r="C96" t="n">
-        <v>0.5096286179744614</v>
-      </c>
-      <c r="D96" t="inlineStr"/>
+        <v>0.0007592969697213953</v>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E96" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Number of Ratings</t>
         </is>
       </c>
       <c r="B97" t="n">
-        <v>-110861889186.7333</v>
+        <v>0.05154663389557718</v>
       </c>
       <c r="C97" t="n">
-        <v>0.5096286179744334</v>
+        <v>0.07701007195781036</v>
       </c>
       <c r="D97" t="inlineStr"/>
       <c r="E97" t="inlineStr">
         <is>
-          <t>Generalized Cross Entropy</t>
+          <t>KS Statistic of sensitive attribute</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Age</t>
+          <t>Difference between Sensitive Attribute Percentage</t>
         </is>
       </c>
       <c r="B98" t="n">
-        <v>294068422868.8671</v>
+        <v>0.04059967824775728</v>
       </c>
       <c r="C98" t="n">
-        <v>0.09761182058703557</v>
+        <v>0.1085399030224022</v>
       </c>
       <c r="D98" t="inlineStr"/>
       <c r="E98" t="inlineStr">
@@ -2442,16 +2442,20 @@
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>Sensitive Feature_Gender</t>
+          <t>hit@5</t>
         </is>
       </c>
       <c r="B99" t="n">
-        <v>294068422868.8642</v>
+        <v>0.03444029489632803</v>
       </c>
       <c r="C99" t="n">
-        <v>0.09761182058703903</v>
-      </c>
-      <c r="D99" t="inlineStr"/>
+        <v>7.288315429932837e-06</v>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>***</t>
+        </is>
+      </c>
       <c r="E99" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2461,20 +2465,16 @@
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>Density</t>
+          <t>Standart Deviation of Rating</t>
         </is>
       </c>
       <c r="B100" t="n">
-        <v>0.07954306061924464</v>
+        <v>0.007523902613199159</v>
       </c>
       <c r="C100" t="n">
-        <v>0.001098841698301942</v>
-      </c>
-      <c r="D100" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.8270704719711039</v>
+      </c>
+      <c r="D100" t="inlineStr"/>
       <c r="E100" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2484,20 +2484,16 @@
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>Average Long Tail Items</t>
+          <t>Skewness of Long Tail Items</t>
         </is>
       </c>
       <c r="B101" t="n">
-        <v>0.04286153765417615</v>
+        <v>0.005697126672619022</v>
       </c>
       <c r="C101" t="n">
-        <v>0.04235156653475983</v>
-      </c>
-      <c r="D101" t="inlineStr">
-        <is>
-          <t>*</t>
-        </is>
-      </c>
+        <v>0.6205421313343513</v>
+      </c>
+      <c r="D101" t="inlineStr"/>
       <c r="E101" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2507,14 +2503,14 @@
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>Difference between Sensitive Attribute Percentage</t>
+          <t>Skewness of Popularity Bias</t>
         </is>
       </c>
       <c r="B102" t="n">
-        <v>0.04010548682775571</v>
+        <v>0.003749251610095429</v>
       </c>
       <c r="C102" t="n">
-        <v>0.1123891839674568</v>
+        <v>0.7510320042011684</v>
       </c>
       <c r="D102" t="inlineStr"/>
       <c r="E102" t="inlineStr">
@@ -2526,20 +2522,16 @@
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>hit@5</t>
+          <t>Shape</t>
         </is>
       </c>
       <c r="B103" t="n">
-        <v>0.03470999535486131</v>
+        <v>0.003187503775549111</v>
       </c>
       <c r="C103" t="n">
-        <v>6.048809099827658e-06</v>
-      </c>
-      <c r="D103" t="inlineStr">
-        <is>
-          <t>***</t>
-        </is>
-      </c>
+        <v>0.8664217215976106</v>
+      </c>
+      <c r="D103" t="inlineStr"/>
       <c r="E103" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2549,14 +2541,14 @@
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>Number of Ratings</t>
+          <t>Number of Items</t>
         </is>
       </c>
       <c r="B104" t="n">
-        <v>0.03282038623613764</v>
+        <v>-0.007983051816839854</v>
       </c>
       <c r="C104" t="n">
-        <v>0.2828403628958897</v>
+        <v>0.6374402011624976</v>
       </c>
       <c r="D104" t="inlineStr"/>
       <c r="E104" t="inlineStr">
@@ -2568,14 +2560,14 @@
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>Number of Items</t>
+          <t>Number of Users</t>
         </is>
       </c>
       <c r="B105" t="n">
-        <v>0.02615121056494386</v>
+        <v>-0.01231460008971608</v>
       </c>
       <c r="C105" t="n">
-        <v>0.2720383376199356</v>
+        <v>0.5321033930762189</v>
       </c>
       <c r="D105" t="inlineStr"/>
       <c r="E105" t="inlineStr">
@@ -2587,14 +2579,14 @@
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>Skewness of Long Tail Items</t>
+          <t>Gini User</t>
         </is>
       </c>
       <c r="B106" t="n">
-        <v>0.01587915453048714</v>
+        <v>-0.01841455690641779</v>
       </c>
       <c r="C106" t="n">
-        <v>0.2057757595155374</v>
+        <v>0.2769640088629442</v>
       </c>
       <c r="D106" t="inlineStr"/>
       <c r="E106" t="inlineStr">
@@ -2606,16 +2598,20 @@
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>Standart Deviation of Rating</t>
+          <t>Rating per User</t>
         </is>
       </c>
       <c r="B107" t="n">
-        <v>-0.0008063890029250988</v>
+        <v>-0.03484573218988005</v>
       </c>
       <c r="C107" t="n">
-        <v>0.9814194224561671</v>
-      </c>
-      <c r="D107" t="inlineStr"/>
+        <v>0.002329366217948375</v>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E107" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2625,16 +2621,20 @@
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>Skewness of Popularity Bias</t>
+          <t>Gini Item</t>
         </is>
       </c>
       <c r="B108" t="n">
-        <v>-0.002608467611551119</v>
+        <v>-0.0652475888957687</v>
       </c>
       <c r="C108" t="n">
-        <v>0.8306889584227469</v>
-      </c>
-      <c r="D108" t="inlineStr"/>
+        <v>0.01075948738669268</v>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>*</t>
+        </is>
+      </c>
       <c r="E108" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2644,16 +2644,20 @@
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>Number of Users</t>
+          <t>Rating per Item</t>
         </is>
       </c>
       <c r="B109" t="n">
-        <v>-0.004184116984523522</v>
+        <v>-0.06617468937354888</v>
       </c>
       <c r="C109" t="n">
-        <v>0.8351732826769904</v>
-      </c>
-      <c r="D109" t="inlineStr"/>
+        <v>0.001470578669124561</v>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>**</t>
+        </is>
+      </c>
       <c r="E109" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2663,14 +2667,14 @@
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>Shape</t>
+          <t>Mean Rating</t>
         </is>
       </c>
       <c r="B110" t="n">
-        <v>-0.02122286020119827</v>
+        <v>-0.0935160124297808</v>
       </c>
       <c r="C110" t="n">
-        <v>0.3438080066599235</v>
+        <v>0.1501690903967529</v>
       </c>
       <c r="D110" t="inlineStr"/>
       <c r="E110" t="inlineStr">
@@ -2682,14 +2686,14 @@
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>Gini User</t>
+          <t>Model Name_FOCF</t>
         </is>
       </c>
       <c r="B111" t="n">
-        <v>-0.02537825339698782</v>
+        <v>-48308414865.68002</v>
       </c>
       <c r="C111" t="n">
-        <v>0.1415789040889452</v>
+        <v>0.1019741472485182</v>
       </c>
       <c r="D111" t="inlineStr"/>
       <c r="E111" t="inlineStr">
@@ -2701,20 +2705,16 @@
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>Rating per User</t>
+          <t>Model Name_NFCF</t>
         </is>
       </c>
       <c r="B112" t="n">
-        <v>-0.03101759945075054</v>
+        <v>-48308414865.68535</v>
       </c>
       <c r="C112" t="n">
-        <v>0.007458541668815973</v>
-      </c>
-      <c r="D112" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.1019741472484786</v>
+      </c>
+      <c r="D112" t="inlineStr"/>
       <c r="E112" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2724,14 +2724,14 @@
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>Rating per Item</t>
+          <t>Model Name_PFCN_MLP</t>
         </is>
       </c>
       <c r="B113" t="n">
-        <v>-0.04275810995324411</v>
+        <v>-48308414865.71384</v>
       </c>
       <c r="C113" t="n">
-        <v>0.07177883278666367</v>
+        <v>0.1019741472482771</v>
       </c>
       <c r="D113" t="inlineStr"/>
       <c r="E113" t="inlineStr">
@@ -2743,20 +2743,16 @@
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>Gini Item</t>
+          <t>Dataset_ml1m</t>
         </is>
       </c>
       <c r="B114" t="n">
-        <v>-0.08699557263703303</v>
+        <v>-72043095917.7195</v>
       </c>
       <c r="C114" t="n">
-        <v>0.001671658850771728</v>
-      </c>
-      <c r="D114" t="inlineStr">
-        <is>
-          <t>**</t>
-        </is>
-      </c>
+        <v>0.1019741472486359</v>
+      </c>
+      <c r="D114" t="inlineStr"/>
       <c r="E114" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
@@ -2766,14 +2762,14 @@
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>Mean Rating</t>
+          <t>Dataset_BX</t>
         </is>
       </c>
       <c r="B115" t="n">
-        <v>-0.09108446746674176</v>
+        <v>-72043095917.80577</v>
       </c>
       <c r="C115" t="n">
-        <v>0.1605579854212997</v>
+        <v>0.1019741472482145</v>
       </c>
       <c r="D115" t="inlineStr"/>
       <c r="E115" t="inlineStr">
@@ -2785,112 +2781,17 @@
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>Model Name_FOCF</t>
+          <t>const</t>
         </is>
       </c>
       <c r="B116" t="n">
-        <v>-60814503859.97287</v>
+        <v>-118841986355.4826</v>
       </c>
       <c r="C116" t="n">
-        <v>0.09761182058719974</v>
+        <v>0.1019741472484469</v>
       </c>
       <c r="D116" t="inlineStr"/>
       <c r="E116" t="inlineStr">
-        <is>
-          <t>KS Statistic of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="117">
-      <c r="A117" t="inlineStr">
-        <is>
-          <t>Model Name_NFCF</t>
-        </is>
-      </c>
-      <c r="B117" t="n">
-        <v>-60814503859.97784</v>
-      </c>
-      <c r="C117" t="n">
-        <v>0.09761182058717062</v>
-      </c>
-      <c r="D117" t="inlineStr"/>
-      <c r="E117" t="inlineStr">
-        <is>
-          <t>KS Statistic of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="118">
-      <c r="A118" t="inlineStr">
-        <is>
-          <t>Model Name_PFCN_MLP</t>
-        </is>
-      </c>
-      <c r="B118" t="n">
-        <v>-60814503860.00658</v>
-      </c>
-      <c r="C118" t="n">
-        <v>0.09761182058701287</v>
-      </c>
-      <c r="D118" t="inlineStr"/>
-      <c r="E118" t="inlineStr">
-        <is>
-          <t>KS Statistic of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="119">
-      <c r="A119" t="inlineStr">
-        <is>
-          <t>Dataset_ml1m</t>
-        </is>
-      </c>
-      <c r="B119" t="n">
-        <v>-90421392746.97</v>
-      </c>
-      <c r="C119" t="n">
-        <v>0.09761182058732448</v>
-      </c>
-      <c r="D119" t="inlineStr"/>
-      <c r="E119" t="inlineStr">
-        <is>
-          <t>KS Statistic of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="120">
-      <c r="A120" t="inlineStr">
-        <is>
-          <t>Dataset_BX</t>
-        </is>
-      </c>
-      <c r="B120" t="n">
-        <v>-90421392747.0737</v>
-      </c>
-      <c r="C120" t="n">
-        <v>0.0976118205869322</v>
-      </c>
-      <c r="D120" t="inlineStr"/>
-      <c r="E120" t="inlineStr">
-        <is>
-          <t>KS Statistic of sensitive attribute</t>
-        </is>
-      </c>
-    </row>
-    <row r="121">
-      <c r="A121" t="inlineStr">
-        <is>
-          <t>const</t>
-        </is>
-      </c>
-      <c r="B121" t="n">
-        <v>-142832526261.7739</v>
-      </c>
-      <c r="C121" t="n">
-        <v>0.09761182058714674</v>
-      </c>
-      <c r="D121" t="inlineStr"/>
-      <c r="E121" t="inlineStr">
         <is>
           <t>KS Statistic of sensitive attribute</t>
         </is>
